--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_11_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_11_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1303006.78619445</v>
+        <v>1300559.911626651</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9250856.195468498</v>
+        <v>9250856.195468504</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>1.52936184871842</v>
+      </c>
+      <c r="E2" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="E2" t="n">
-        <v>13.47865120333094</v>
       </c>
       <c r="F2" t="n">
         <v>15.30273751513505</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12.73205987707308</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="I3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>12.73205987707308</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="S3" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -817,28 +817,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>10.75721046822444</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>15.30273751513505</v>
@@ -859,10 +859,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -911,58 +911,58 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="I5" t="n">
-        <v>13.47865120333094</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,25 +978,25 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="S6" t="n">
-        <v>13.47865120333094</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>12.73205987707308</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>10.75721046822444</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>10.75721046822444</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>15.30273751513505</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1175,16 +1175,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S8" t="n">
-        <v>27.59002526031614</v>
+        <v>14.31059503474164</v>
       </c>
       <c r="T8" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>23.55470292302859</v>
-      </c>
-      <c r="H9" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>25.04785205983618</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J10" t="n">
         <v>27.59002526031614</v>
@@ -1333,7 +1333,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.59002526031614</v>
+        <v>25.04785205983618</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1370,22 +1370,22 @@
         <v>336.4918166133075</v>
       </c>
       <c r="C11" t="n">
-        <v>319.0308667208345</v>
+        <v>319.0308667208344</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>308.4410165705099</v>
       </c>
       <c r="E11" t="n">
-        <v>335.6883450220888</v>
+        <v>335.6883450220887</v>
       </c>
       <c r="F11" t="n">
         <v>360.6340206915384</v>
       </c>
       <c r="G11" t="n">
-        <v>364.6918465065207</v>
+        <v>364.6918465065206</v>
       </c>
       <c r="H11" t="n">
-        <v>119.9702191473161</v>
+        <v>16.28332115779324</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>157.7291137808813</v>
+        <v>157.7291137808812</v>
       </c>
       <c r="U11" t="n">
-        <v>204.7541185809881</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>281.5102334199619</v>
+        <v>281.5102334199618</v>
       </c>
       <c r="W11" t="n">
-        <v>302.99894366724</v>
+        <v>302.9989436672399</v>
       </c>
       <c r="X11" t="n">
         <v>323.489075628296</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.9959136058806</v>
+        <v>339.9959136058804</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133.5899551317643</v>
+        <v>133.5899551317642</v>
       </c>
       <c r="C13" t="n">
-        <v>121.0047960484548</v>
+        <v>121.0047960484547</v>
       </c>
       <c r="D13" t="n">
-        <v>102.3734479680393</v>
+        <v>102.3734479680392</v>
       </c>
       <c r="E13" t="n">
-        <v>76.83904618001067</v>
+        <v>100.1919375963961</v>
       </c>
       <c r="F13" t="n">
-        <v>99.17902297275822</v>
+        <v>99.17902297275813</v>
       </c>
       <c r="G13" t="n">
-        <v>119.7892314429111</v>
+        <v>119.789231442911</v>
       </c>
       <c r="H13" t="n">
-        <v>98.56142961784496</v>
+        <v>98.56142961784488</v>
       </c>
       <c r="I13" t="n">
-        <v>50.27423861654682</v>
+        <v>26.92134720016338</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>42.9351000347888</v>
+        <v>42.9351000347887</v>
       </c>
       <c r="S13" t="n">
         <v>143.6219481420434</v>
       </c>
       <c r="T13" t="n">
-        <v>173.3302030442351</v>
+        <v>173.330203044235</v>
       </c>
       <c r="U13" t="n">
-        <v>239.9701103318429</v>
+        <v>239.9701103318428</v>
       </c>
       <c r="V13" t="n">
-        <v>205.895618273655</v>
+        <v>205.8956182736549</v>
       </c>
       <c r="W13" t="n">
-        <v>240.280973286418</v>
+        <v>240.2809732864179</v>
       </c>
       <c r="X13" t="n">
-        <v>179.4676303388641</v>
+        <v>179.467630338864</v>
       </c>
       <c r="Y13" t="n">
-        <v>172.3426283019218</v>
+        <v>172.3426283019217</v>
       </c>
     </row>
     <row r="14">
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>336.4918166133075</v>
+        <v>196.9423998048545</v>
       </c>
       <c r="C14" t="n">
-        <v>100.3576626408062</v>
+        <v>319.0308667208344</v>
       </c>
       <c r="D14" t="n">
         <v>308.4410165705099</v>
       </c>
       <c r="E14" t="n">
-        <v>335.6883450220888</v>
+        <v>335.6883450220887</v>
       </c>
       <c r="F14" t="n">
-        <v>360.6340206915384</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>364.6918465065207</v>
+        <v>364.6918465065206</v>
       </c>
       <c r="H14" t="n">
         <v>248.4901285687066</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.22251150808995</v>
+        <v>63.22251150808987</v>
       </c>
       <c r="T14" t="n">
-        <v>157.7291137808813</v>
+        <v>157.7291137808812</v>
       </c>
       <c r="U14" t="n">
         <v>204.7541185809881</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>281.5102334199618</v>
       </c>
       <c r="W14" t="n">
-        <v>302.99894366724</v>
+        <v>302.9989436672399</v>
       </c>
       <c r="X14" t="n">
         <v>323.489075628296</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.9959136058806</v>
+        <v>339.9959136058804</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>133.5899551317643</v>
+        <v>133.5899551317642</v>
       </c>
       <c r="C16" t="n">
-        <v>121.0047960484548</v>
+        <v>121.0047960484547</v>
       </c>
       <c r="D16" t="n">
-        <v>102.3734479680393</v>
+        <v>102.3734479680392</v>
       </c>
       <c r="E16" t="n">
         <v>100.1919375963961</v>
       </c>
       <c r="F16" t="n">
-        <v>99.17902297275822</v>
+        <v>99.17902297275813</v>
       </c>
       <c r="G16" t="n">
-        <v>119.7892314429111</v>
+        <v>119.789231442911</v>
       </c>
       <c r="H16" t="n">
-        <v>98.56142961784496</v>
+        <v>75.2085382014611</v>
       </c>
       <c r="I16" t="n">
-        <v>50.27423861654681</v>
+        <v>50.27423861654673</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>19.58220861840313</v>
+        <v>42.9351000347887</v>
       </c>
       <c r="S16" t="n">
         <v>143.6219481420434</v>
       </c>
       <c r="T16" t="n">
-        <v>173.3302030442351</v>
+        <v>173.330203044235</v>
       </c>
       <c r="U16" t="n">
-        <v>239.9701103318429</v>
+        <v>239.9701103318428</v>
       </c>
       <c r="V16" t="n">
-        <v>205.895618273655</v>
+        <v>205.8956182736549</v>
       </c>
       <c r="W16" t="n">
-        <v>240.280973286418</v>
+        <v>240.2809732864179</v>
       </c>
       <c r="X16" t="n">
-        <v>179.4676303388641</v>
+        <v>179.467630338864</v>
       </c>
       <c r="Y16" t="n">
-        <v>172.3426283019218</v>
+        <v>172.3426283019217</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>336.4918166133075</v>
+        <v>117.8186125332785</v>
       </c>
       <c r="C17" t="n">
-        <v>305.1117812217939</v>
+        <v>319.0308667208344</v>
       </c>
       <c r="D17" t="n">
         <v>308.4410165705099</v>
       </c>
       <c r="E17" t="n">
-        <v>335.6883450220888</v>
+        <v>335.6883450220887</v>
       </c>
       <c r="F17" t="n">
         <v>360.6340206915384</v>
       </c>
       <c r="G17" t="n">
-        <v>364.6918465065207</v>
+        <v>364.6918465065206</v>
       </c>
       <c r="H17" t="n">
-        <v>248.4901285687066</v>
+        <v>248.4901285687065</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>63.22251150808995</v>
+        <v>63.22251150808987</v>
       </c>
       <c r="T17" t="n">
-        <v>157.7291137808813</v>
+        <v>157.7291137808812</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>204.7541185809881</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>302.99894366724</v>
+        <v>302.9989436672399</v>
       </c>
       <c r="X17" t="n">
         <v>323.489075628296</v>
       </c>
       <c r="Y17" t="n">
-        <v>339.9959136058806</v>
+        <v>339.9959136058804</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>133.5899551317643</v>
+        <v>133.5899551317642</v>
       </c>
       <c r="C19" t="n">
-        <v>121.0047960484548</v>
+        <v>121.0047960484547</v>
       </c>
       <c r="D19" t="n">
-        <v>102.3734479680393</v>
+        <v>102.3734479680392</v>
       </c>
       <c r="E19" t="n">
         <v>100.1919375963961</v>
       </c>
       <c r="F19" t="n">
-        <v>99.17902297275822</v>
+        <v>99.17902297275813</v>
       </c>
       <c r="G19" t="n">
-        <v>96.43634002652557</v>
+        <v>119.789231442911</v>
       </c>
       <c r="H19" t="n">
-        <v>98.56142961784496</v>
+        <v>98.56142961784488</v>
       </c>
       <c r="I19" t="n">
-        <v>50.27423861654682</v>
+        <v>50.27423861654673</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.93510003478879</v>
+        <v>19.58220861840545</v>
       </c>
       <c r="S19" t="n">
         <v>143.6219481420434</v>
       </c>
       <c r="T19" t="n">
-        <v>173.3302030442351</v>
+        <v>173.330203044235</v>
       </c>
       <c r="U19" t="n">
-        <v>239.9701103318429</v>
+        <v>239.9701103318428</v>
       </c>
       <c r="V19" t="n">
-        <v>205.895618273655</v>
+        <v>205.8956182736549</v>
       </c>
       <c r="W19" t="n">
-        <v>240.280973286418</v>
+        <v>240.2809732864179</v>
       </c>
       <c r="X19" t="n">
-        <v>179.4676303388641</v>
+        <v>179.467630338864</v>
       </c>
       <c r="Y19" t="n">
-        <v>172.3426283019218</v>
+        <v>172.3426283019217</v>
       </c>
     </row>
     <row r="20">
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>336.4918166133075</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>319.0308667208345</v>
+        <v>319.0308667208344</v>
       </c>
       <c r="D20" t="n">
         <v>308.4410165705099</v>
       </c>
       <c r="E20" t="n">
-        <v>335.6883450220888</v>
+        <v>335.6883450220887</v>
       </c>
       <c r="F20" t="n">
         <v>360.6340206915384</v>
       </c>
       <c r="G20" t="n">
-        <v>364.6918465065207</v>
+        <v>364.6918465065206</v>
       </c>
       <c r="H20" t="n">
         <v>248.4901285687066</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.22251150808996</v>
+        <v>63.22251150808988</v>
       </c>
       <c r="T20" t="n">
-        <v>157.7291137808813</v>
+        <v>157.7291137808812</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>204.7541185809881</v>
       </c>
       <c r="V20" t="n">
-        <v>281.5102334199619</v>
+        <v>117.8186125332784</v>
       </c>
       <c r="W20" t="n">
-        <v>302.99894366724</v>
+        <v>302.9989436672399</v>
       </c>
       <c r="X20" t="n">
         <v>323.489075628296</v>
       </c>
       <c r="Y20" t="n">
-        <v>44.56659468687804</v>
+        <v>339.9959136058804</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>135.0059677968616</v>
       </c>
       <c r="H21" t="n">
-        <v>89.65963851412518</v>
+        <v>89.65963851412519</v>
       </c>
       <c r="I21" t="n">
-        <v>8.915218264396657</v>
+        <v>8.915218264396685</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>133.5899551317643</v>
+        <v>133.5899551317642</v>
       </c>
       <c r="C22" t="n">
-        <v>121.0047960484548</v>
+        <v>121.0047960484547</v>
       </c>
       <c r="D22" t="n">
-        <v>102.3734479680393</v>
+        <v>102.3734479680392</v>
       </c>
       <c r="E22" t="n">
         <v>100.1919375963961</v>
       </c>
       <c r="F22" t="n">
-        <v>99.17902297275822</v>
+        <v>99.17902297275813</v>
       </c>
       <c r="G22" t="n">
-        <v>119.7892314429111</v>
+        <v>119.789231442911</v>
       </c>
       <c r="H22" t="n">
-        <v>98.56142961784496</v>
+        <v>98.56142961784488</v>
       </c>
       <c r="I22" t="n">
-        <v>26.92134720016023</v>
+        <v>50.27423861654674</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.9351000347888</v>
+        <v>42.93510003478872</v>
       </c>
       <c r="S22" t="n">
         <v>143.6219481420434</v>
       </c>
       <c r="T22" t="n">
-        <v>173.3302030442351</v>
+        <v>173.330203044235</v>
       </c>
       <c r="U22" t="n">
-        <v>239.9701103318429</v>
+        <v>216.6172189154591</v>
       </c>
       <c r="V22" t="n">
-        <v>205.895618273655</v>
+        <v>205.8956182736549</v>
       </c>
       <c r="W22" t="n">
-        <v>240.280973286418</v>
+        <v>240.2809732864179</v>
       </c>
       <c r="X22" t="n">
-        <v>179.4676303388641</v>
+        <v>179.467630338864</v>
       </c>
       <c r="Y22" t="n">
-        <v>172.3426283019218</v>
+        <v>172.3426283019217</v>
       </c>
     </row>
     <row r="23">
@@ -2318,22 +2318,22 @@
         <v>336.4918166133075</v>
       </c>
       <c r="C23" t="n">
-        <v>319.0308667208345</v>
+        <v>319.0308667208344</v>
       </c>
       <c r="D23" t="n">
         <v>308.4410165705099</v>
       </c>
       <c r="E23" t="n">
-        <v>335.6883450220888</v>
+        <v>335.6883450220887</v>
       </c>
       <c r="F23" t="n">
         <v>360.6340206915384</v>
       </c>
       <c r="G23" t="n">
-        <v>364.6918465065207</v>
+        <v>364.6918465065206</v>
       </c>
       <c r="H23" t="n">
-        <v>248.4901285687066</v>
+        <v>248.4901285687065</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>63.22251150808996</v>
+        <v>63.22251150808987</v>
       </c>
       <c r="T23" t="n">
-        <v>157.7291137808813</v>
+        <v>157.7291137808812</v>
       </c>
       <c r="U23" t="n">
         <v>204.7541185809881</v>
       </c>
       <c r="V23" t="n">
-        <v>281.5102334199619</v>
+        <v>281.5102334199618</v>
       </c>
       <c r="W23" t="n">
-        <v>302.99894366724</v>
+        <v>302.9989436672399</v>
       </c>
       <c r="X23" t="n">
         <v>323.489075628296</v>
       </c>
       <c r="Y23" t="n">
-        <v>339.9959136058806</v>
+        <v>339.9959136058804</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>133.5899551317643</v>
+        <v>133.5899551317642</v>
       </c>
       <c r="C25" t="n">
-        <v>121.0047960484548</v>
+        <v>121.0047960484547</v>
       </c>
       <c r="D25" t="n">
-        <v>102.3734479680393</v>
+        <v>102.3734479680392</v>
       </c>
       <c r="E25" t="n">
         <v>100.1919375963961</v>
       </c>
       <c r="F25" t="n">
-        <v>99.17902297275822</v>
+        <v>99.17902297275813</v>
       </c>
       <c r="G25" t="n">
-        <v>119.7892314429111</v>
+        <v>119.789231442911</v>
       </c>
       <c r="H25" t="n">
-        <v>98.56142961784496</v>
+        <v>75.20853820146144</v>
       </c>
       <c r="I25" t="n">
-        <v>50.27423861654682</v>
+        <v>50.27423861654673</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.9351000347888</v>
+        <v>42.9351000347887</v>
       </c>
       <c r="S25" t="n">
         <v>143.6219481420434</v>
       </c>
       <c r="T25" t="n">
-        <v>173.3302030442351</v>
+        <v>173.330203044235</v>
       </c>
       <c r="U25" t="n">
-        <v>216.6172189154569</v>
+        <v>239.9701103318428</v>
       </c>
       <c r="V25" t="n">
-        <v>205.895618273655</v>
+        <v>205.8956182736549</v>
       </c>
       <c r="W25" t="n">
-        <v>240.280973286418</v>
+        <v>240.2809732864179</v>
       </c>
       <c r="X25" t="n">
-        <v>179.4676303388641</v>
+        <v>179.467630338864</v>
       </c>
       <c r="Y25" t="n">
-        <v>172.3426283019218</v>
+        <v>172.3426283019217</v>
       </c>
     </row>
     <row r="26">
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1.062794560162502</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0312564930842</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5722280944081</v>
+        <v>169.5832764317013</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2121353820159</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2889,7 +2889,7 @@
         <v>89.65963851412518</v>
       </c>
       <c r="I30" t="n">
-        <v>8.915218264396657</v>
+        <v>8.915218264397224</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>158.2776226485112</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0312564930842</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.51626366671984</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>89.17712508496182</v>
       </c>
       <c r="S31" t="n">
-        <v>189.8639731922165</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5722280944081</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2121353820159</v>
+        <v>115.4051454461488</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3044,10 +3044,10 @@
         <v>407.7549044712605</v>
       </c>
       <c r="H32" t="n">
-        <v>291.5531865334465</v>
+        <v>291.5531865334464</v>
       </c>
       <c r="I32" t="n">
-        <v>38.8662176221624</v>
+        <v>38.86621762216234</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3123,10 +3123,10 @@
         <v>135.0059677968616</v>
       </c>
       <c r="H33" t="n">
-        <v>89.65963851412519</v>
+        <v>89.65963851412518</v>
       </c>
       <c r="I33" t="n">
-        <v>8.915218264396685</v>
+        <v>8.915218264397224</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>126.4169396567137</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>162.8522894076509</v>
       </c>
       <c r="H34" t="n">
-        <v>141.6244875825847</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>186.6850061067832</v>
       </c>
       <c r="T34" t="n">
         <v>216.3932610089749</v>
       </c>
       <c r="U34" t="n">
-        <v>283.0331682965826</v>
+        <v>283.0331682965827</v>
       </c>
       <c r="V34" t="n">
         <v>248.9586762383948</v>
@@ -3253,7 +3253,7 @@
         <v>222.5306883036039</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>81.35642113251535</v>
       </c>
     </row>
     <row r="35">
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.24297678541346</v>
+        <v>62.24297678541348</v>
       </c>
       <c r="T38" t="n">
         <v>156.7495790582048</v>
       </c>
       <c r="U38" t="n">
-        <v>203.7745838583116</v>
+        <v>203.7745838583117</v>
       </c>
       <c r="V38" t="n">
         <v>280.5306986972854</v>
@@ -3664,22 +3664,22 @@
         <v>120.0252613257783</v>
       </c>
       <c r="D40" t="n">
-        <v>101.3939132453628</v>
+        <v>101.3939132453629</v>
       </c>
       <c r="E40" t="n">
-        <v>99.21240287371965</v>
+        <v>99.21240287371967</v>
       </c>
       <c r="F40" t="n">
-        <v>98.19948825008173</v>
+        <v>98.19948825008174</v>
       </c>
       <c r="G40" t="n">
-        <v>118.8096967202346</v>
+        <v>118.8096967202347</v>
       </c>
       <c r="H40" t="n">
-        <v>97.58189489516847</v>
+        <v>97.58189489516849</v>
       </c>
       <c r="I40" t="n">
-        <v>49.29470389387032</v>
+        <v>49.29470389387033</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.9555653121123</v>
+        <v>41.95556531211231</v>
       </c>
       <c r="S40" t="n">
         <v>142.642413419367</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.24297678541346</v>
+        <v>62.24297678541348</v>
       </c>
       <c r="T41" t="n">
         <v>156.7495790582048</v>
       </c>
       <c r="U41" t="n">
-        <v>203.7745838583116</v>
+        <v>203.7745838583117</v>
       </c>
       <c r="V41" t="n">
         <v>280.5306986972854</v>
@@ -3901,22 +3901,22 @@
         <v>120.0252613257783</v>
       </c>
       <c r="D43" t="n">
-        <v>101.3939132453628</v>
+        <v>101.3939132453629</v>
       </c>
       <c r="E43" t="n">
-        <v>99.21240287371965</v>
+        <v>99.21240287371967</v>
       </c>
       <c r="F43" t="n">
-        <v>98.19948825008173</v>
+        <v>98.19948825008174</v>
       </c>
       <c r="G43" t="n">
         <v>118.8096967202346</v>
       </c>
       <c r="H43" t="n">
-        <v>97.58189489516846</v>
+        <v>97.58189489516849</v>
       </c>
       <c r="I43" t="n">
-        <v>49.29470389387032</v>
+        <v>49.29470389387033</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>335.512281890631</v>
+        <v>335.5122818906311</v>
       </c>
       <c r="C44" t="n">
         <v>318.051331998158</v>
       </c>
       <c r="D44" t="n">
-        <v>307.4614818478334</v>
+        <v>307.4614818478335</v>
       </c>
       <c r="E44" t="n">
-        <v>334.7088102994122</v>
+        <v>334.7088102994123</v>
       </c>
       <c r="F44" t="n">
         <v>359.6544859688619</v>
       </c>
       <c r="G44" t="n">
-        <v>363.7123117838441</v>
+        <v>363.7123117838442</v>
       </c>
       <c r="H44" t="n">
-        <v>247.5105938460301</v>
+        <v>247.5105938460302</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.24297678541344</v>
+        <v>62.2429767854135</v>
       </c>
       <c r="T44" t="n">
-        <v>156.7495790582048</v>
+        <v>156.7495790582049</v>
       </c>
       <c r="U44" t="n">
-        <v>203.7745838583116</v>
+        <v>203.7745838583117</v>
       </c>
       <c r="V44" t="n">
-        <v>280.5306986972853</v>
+        <v>280.5306986972854</v>
       </c>
       <c r="W44" t="n">
         <v>302.0194089445635</v>
@@ -4043,7 +4043,7 @@
         <v>322.5095409056195</v>
       </c>
       <c r="Y44" t="n">
-        <v>339.016378883204</v>
+        <v>339.0163788832041</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>89.65963851412518</v>
       </c>
       <c r="I45" t="n">
-        <v>8.915218264397014</v>
+        <v>8.915218264396657</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>132.6104204090878</v>
       </c>
       <c r="C46" t="n">
-        <v>120.0252613257783</v>
+        <v>120.0252613257784</v>
       </c>
       <c r="D46" t="n">
-        <v>101.3939132453628</v>
+        <v>101.3939132453625</v>
       </c>
       <c r="E46" t="n">
-        <v>99.21240287371964</v>
+        <v>99.2124028737197</v>
       </c>
       <c r="F46" t="n">
-        <v>98.19948825008171</v>
+        <v>98.19948825008177</v>
       </c>
       <c r="G46" t="n">
-        <v>118.8096967202346</v>
+        <v>118.8096967202347</v>
       </c>
       <c r="H46" t="n">
-        <v>97.58189489516846</v>
+        <v>97.58189489516852</v>
       </c>
       <c r="I46" t="n">
-        <v>49.29470389387031</v>
+        <v>49.29470389387036</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95556531211228</v>
+        <v>41.95556531211234</v>
       </c>
       <c r="S46" t="n">
-        <v>142.6424134193669</v>
+        <v>142.642413419367</v>
       </c>
       <c r="T46" t="n">
-        <v>172.3506683215586</v>
+        <v>172.3506683215587</v>
       </c>
       <c r="U46" t="n">
         <v>238.9905756091664</v>
@@ -4198,7 +4198,7 @@
         <v>239.3014385637415</v>
       </c>
       <c r="X46" t="n">
-        <v>178.4880956161876</v>
+        <v>178.4880956161877</v>
       </c>
       <c r="Y46" t="n">
         <v>171.3630935792453</v>
@@ -4310,37 +4310,37 @@
         <v>61.2109500605402</v>
       </c>
       <c r="D2" t="n">
-        <v>45.75363943919166</v>
+        <v>59.66614011233978</v>
       </c>
       <c r="E2" t="n">
-        <v>32.13884024390788</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="F2" t="n">
-        <v>16.68152962255934</v>
+        <v>28.75151886964269</v>
       </c>
       <c r="G2" t="n">
-        <v>1.224219001210804</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="H2" t="n">
-        <v>1.224219001210804</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="I2" t="n">
-        <v>1.224219001210804</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="J2" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K2" t="n">
-        <v>1.224219001210804</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="L2" t="n">
-        <v>16.37392914119451</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="M2" t="n">
-        <v>31.52363928117821</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="N2" t="n">
-        <v>46.6733494211619</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="O2" t="n">
         <v>61.2109500605402</v>
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.29632881784312</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="C3" t="n">
-        <v>30.29632881784312</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="D3" t="n">
-        <v>30.29632881784312</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="E3" t="n">
-        <v>30.29632881784312</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="F3" t="n">
-        <v>30.29632881784312</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="G3" t="n">
-        <v>30.29632881784312</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="H3" t="n">
-        <v>17.43566227534506</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="I3" t="n">
         <v>1.978351653996518</v>
@@ -4410,49 +4410,49 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K3" t="n">
+        <v>1.224219001210804</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.224219001210804</v>
+      </c>
+      <c r="M3" t="n">
         <v>16.37392914119451</v>
-      </c>
-      <c r="L3" t="n">
-        <v>31.52363928117821</v>
-      </c>
-      <c r="M3" t="n">
-        <v>31.52363928117821</v>
       </c>
       <c r="N3" t="n">
         <v>31.52363928117821</v>
       </c>
       <c r="O3" t="n">
-        <v>31.52363928117821</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="P3" t="n">
-        <v>46.0612399205565</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Q3" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="R3" t="n">
-        <v>45.75363943919166</v>
+        <v>48.35028351804213</v>
       </c>
       <c r="S3" t="n">
-        <v>30.29632881784312</v>
+        <v>48.35028351804213</v>
       </c>
       <c r="T3" t="n">
-        <v>30.29632881784312</v>
+        <v>48.35028351804213</v>
       </c>
       <c r="U3" t="n">
-        <v>30.29632881784312</v>
+        <v>48.35028351804213</v>
       </c>
       <c r="V3" t="n">
-        <v>30.29632881784312</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="W3" t="n">
-        <v>30.29632881784312</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="X3" t="n">
-        <v>30.29632881784312</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="Y3" t="n">
-        <v>30.29632881784312</v>
+        <v>32.89297289669359</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.00470940373054</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="C4" t="n">
         <v>27.54739878238201</v>
       </c>
       <c r="D4" t="n">
-        <v>16.68152962255934</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="E4" t="n">
-        <v>16.68152962255934</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="F4" t="n">
-        <v>16.68152962255934</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="G4" t="n">
-        <v>16.68152962255934</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="H4" t="n">
-        <v>16.68152962255934</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="I4" t="n">
-        <v>16.68152962255934</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="J4" t="n">
         <v>16.68152962255934</v>
@@ -4507,31 +4507,31 @@
         <v>58.46202002507908</v>
       </c>
       <c r="Q4" t="n">
-        <v>58.46202002507908</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="R4" t="n">
-        <v>58.46202002507908</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="S4" t="n">
-        <v>58.46202002507908</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="T4" t="n">
-        <v>58.46202002507908</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="U4" t="n">
-        <v>58.46202002507908</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="V4" t="n">
-        <v>58.46202002507908</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="W4" t="n">
-        <v>58.46202002507908</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="X4" t="n">
-        <v>43.00470940373054</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.00470940373054</v>
+        <v>27.54739878238201</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61.2109500605402</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="C5" t="n">
-        <v>61.2109500605402</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="D5" t="n">
-        <v>61.2109500605402</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="E5" t="n">
-        <v>61.2109500605402</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="F5" t="n">
-        <v>45.75363943919166</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G5" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H5" t="n">
-        <v>14.83901819649459</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I5" t="n">
         <v>1.224219001210804</v>
@@ -4568,19 +4568,19 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K5" t="n">
-        <v>16.37392914119451</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="L5" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="M5" t="n">
-        <v>31.52363928117821</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="N5" t="n">
-        <v>46.6733494211619</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="O5" t="n">
-        <v>46.6733494211619</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="P5" t="n">
         <v>61.2109500605402</v>
@@ -4610,7 +4610,7 @@
         <v>61.2109500605402</v>
       </c>
       <c r="Y5" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.13884024390788</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="C6" t="n">
-        <v>32.13884024390788</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="D6" t="n">
-        <v>16.68152962255934</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="E6" t="n">
-        <v>1.224219001210804</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="F6" t="n">
-        <v>1.224219001210804</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="G6" t="n">
-        <v>1.224219001210804</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="H6" t="n">
-        <v>1.224219001210804</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="I6" t="n">
-        <v>1.224219001210804</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="J6" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K6" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L6" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M6" t="n">
-        <v>1.224219001210804</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N6" t="n">
-        <v>16.37392914119451</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="O6" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="P6" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="Q6" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="R6" t="n">
+        <v>61.2109500605402</v>
+      </c>
+      <c r="S6" t="n">
+        <v>61.2109500605402</v>
+      </c>
+      <c r="T6" t="n">
+        <v>61.2109500605402</v>
+      </c>
+      <c r="U6" t="n">
+        <v>61.2109500605402</v>
+      </c>
+      <c r="V6" t="n">
+        <v>61.2109500605402</v>
+      </c>
+      <c r="W6" t="n">
+        <v>61.2109500605402</v>
+      </c>
+      <c r="X6" t="n">
         <v>45.75363943919166</v>
       </c>
-      <c r="S6" t="n">
-        <v>32.13884024390788</v>
-      </c>
-      <c r="T6" t="n">
-        <v>32.13884024390788</v>
-      </c>
-      <c r="U6" t="n">
-        <v>32.13884024390788</v>
-      </c>
-      <c r="V6" t="n">
-        <v>32.13884024390788</v>
-      </c>
-      <c r="W6" t="n">
-        <v>32.13884024390788</v>
-      </c>
-      <c r="X6" t="n">
-        <v>32.13884024390788</v>
-      </c>
       <c r="Y6" t="n">
-        <v>32.13884024390788</v>
+        <v>32.89297289669359</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.00470940373054</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="C7" t="n">
-        <v>43.00470940373054</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="D7" t="n">
-        <v>43.00470940373054</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="E7" t="n">
-        <v>43.00470940373054</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="F7" t="n">
-        <v>43.00470940373054</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G7" t="n">
-        <v>43.00470940373054</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="H7" t="n">
-        <v>43.00470940373054</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="I7" t="n">
-        <v>32.13884024390788</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="J7" t="n">
         <v>16.68152962255934</v>
@@ -4753,22 +4753,22 @@
         <v>43.00470940373054</v>
       </c>
       <c r="T7" t="n">
-        <v>43.00470940373054</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="U7" t="n">
-        <v>43.00470940373054</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="V7" t="n">
-        <v>43.00470940373054</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="W7" t="n">
-        <v>43.00470940373054</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="X7" t="n">
-        <v>43.00470940373054</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.00470940373054</v>
+        <v>27.54739878238201</v>
       </c>
     </row>
     <row r="8">
@@ -4805,13 +4805,13 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K8" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L8" t="n">
-        <v>28.41772601812563</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M8" t="n">
-        <v>55.73185102583861</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N8" t="n">
         <v>83.04597603355158</v>
@@ -4823,13 +4823,13 @@
         <v>110.3601010412646</v>
       </c>
       <c r="Q8" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R8" t="n">
-        <v>110.3601010412646</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="S8" t="n">
-        <v>82.49138865710684</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="T8" t="n">
         <v>57.94462678914073</v>
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>54.62267627294912</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="C9" t="n">
-        <v>54.62267627294912</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="D9" t="n">
-        <v>54.62267627294912</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="E9" t="n">
-        <v>54.62267627294912</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="F9" t="n">
-        <v>54.62267627294912</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="G9" t="n">
-        <v>30.83004705776872</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="H9" t="n">
-        <v>2.961334673611005</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="I9" t="n">
         <v>2.961334673611005</v>
@@ -4884,49 +4884,49 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K9" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L9" t="n">
-        <v>29.52132702853827</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M9" t="n">
-        <v>29.52132702853827</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N9" t="n">
-        <v>56.83545203625125</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O9" t="n">
-        <v>84.14957704396423</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P9" t="n">
-        <v>84.14957704396423</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q9" t="n">
         <v>110.3601010412646</v>
       </c>
       <c r="R9" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S9" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T9" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U9" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V9" t="n">
-        <v>82.49138865710684</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W9" t="n">
         <v>54.62267627294912</v>
       </c>
       <c r="X9" t="n">
-        <v>54.62267627294912</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="Y9" t="n">
-        <v>54.62267627294912</v>
+        <v>26.7539638887914</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77.87121125924466</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="C10" t="n">
-        <v>77.87121125924466</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="D10" t="n">
-        <v>77.87121125924466</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="E10" t="n">
-        <v>77.87121125924466</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="F10" t="n">
-        <v>77.87121125924466</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="G10" t="n">
-        <v>77.87121125924466</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="H10" t="n">
-        <v>77.87121125924466</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="I10" t="n">
         <v>52.57035059274347</v>
@@ -4981,31 +4981,31 @@
         <v>105.7399236434024</v>
       </c>
       <c r="Q10" t="n">
-        <v>77.87121125924466</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="R10" t="n">
-        <v>77.87121125924466</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="S10" t="n">
-        <v>77.87121125924466</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="T10" t="n">
-        <v>77.87121125924466</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="U10" t="n">
-        <v>77.87121125924466</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="V10" t="n">
-        <v>77.87121125924466</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="W10" t="n">
-        <v>77.87121125924466</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="X10" t="n">
-        <v>77.87121125924466</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="Y10" t="n">
-        <v>77.87121125924466</v>
+        <v>80.43906297690118</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1586.224162434786</v>
+        <v>1793.046504435783</v>
       </c>
       <c r="C11" t="n">
-        <v>1263.970761706671</v>
+        <v>1470.793103707667</v>
       </c>
       <c r="D11" t="n">
-        <v>1263.970761706671</v>
+        <v>1159.236521313213</v>
       </c>
       <c r="E11" t="n">
-        <v>924.8916253207225</v>
+        <v>820.1573849272645</v>
       </c>
       <c r="F11" t="n">
-        <v>560.6148367434109</v>
+        <v>455.8805963499531</v>
       </c>
       <c r="G11" t="n">
-        <v>192.2392342115718</v>
+        <v>87.50499381811423</v>
       </c>
       <c r="H11" t="n">
-        <v>71.05719466882816</v>
+        <v>71.05719466882813</v>
       </c>
       <c r="I11" t="n">
-        <v>71.05719466882816</v>
+        <v>71.05719466882813</v>
       </c>
       <c r="J11" t="n">
         <v>258.915765956268</v>
@@ -5048,43 +5048,43 @@
         <v>1040.34225102029</v>
       </c>
       <c r="M11" t="n">
-        <v>1808.985151349331</v>
+        <v>1571.762768503203</v>
       </c>
       <c r="N11" t="n">
-        <v>2353.618416766997</v>
+        <v>2116.396033920869</v>
       </c>
       <c r="O11" t="n">
-        <v>2854.564904072309</v>
+        <v>2854.564904072307</v>
       </c>
       <c r="P11" t="n">
-        <v>3247.610140321844</v>
+        <v>3247.610140321842</v>
       </c>
       <c r="Q11" t="n">
-        <v>3494.597997378076</v>
+        <v>3494.597997378075</v>
       </c>
       <c r="R11" t="n">
-        <v>3552.859733441408</v>
+        <v>3552.859733441406</v>
       </c>
       <c r="S11" t="n">
-        <v>3552.859733441408</v>
+        <v>3552.859733441406</v>
       </c>
       <c r="T11" t="n">
-        <v>3393.537396289003</v>
+        <v>3393.537396289001</v>
       </c>
       <c r="U11" t="n">
-        <v>3186.715054288004</v>
+        <v>3393.537396289001</v>
       </c>
       <c r="V11" t="n">
-        <v>2902.36128315673</v>
+        <v>3109.183625157726</v>
       </c>
       <c r="W11" t="n">
-        <v>2596.301744098912</v>
+        <v>2803.124086099908</v>
       </c>
       <c r="X11" t="n">
-        <v>2269.545102050128</v>
+        <v>2476.367444051124</v>
       </c>
       <c r="Y11" t="n">
-        <v>1926.114886286612</v>
+        <v>2132.937228287608</v>
       </c>
     </row>
     <row r="12">
@@ -5112,10 +5112,10 @@
         <v>170.6277570713755</v>
       </c>
       <c r="H12" t="n">
-        <v>80.0624656429662</v>
+        <v>80.06246564296617</v>
       </c>
       <c r="I12" t="n">
-        <v>71.05719466882816</v>
+        <v>71.05719466882813</v>
       </c>
       <c r="J12" t="n">
         <v>164.1266258105823</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>745.8260965340463</v>
+        <v>745.8260965340477</v>
       </c>
       <c r="C13" t="n">
-        <v>623.5990298184354</v>
+        <v>623.5990298184369</v>
       </c>
       <c r="D13" t="n">
-        <v>520.1915066183957</v>
+        <v>520.1915066183972</v>
       </c>
       <c r="E13" t="n">
-        <v>442.5763084567687</v>
+        <v>418.9875292483001</v>
       </c>
       <c r="F13" t="n">
-        <v>342.3954771711544</v>
+        <v>318.8066979626858</v>
       </c>
       <c r="G13" t="n">
-        <v>221.3962534914461</v>
+        <v>197.8074742829779</v>
       </c>
       <c r="H13" t="n">
-        <v>121.8392538774613</v>
+        <v>98.25047466899316</v>
       </c>
       <c r="I13" t="n">
-        <v>71.05719466882816</v>
+        <v>71.05719466882813</v>
       </c>
       <c r="J13" t="n">
-        <v>161.5780936691588</v>
+        <v>161.5780936691589</v>
       </c>
       <c r="K13" t="n">
         <v>410.7182255365943</v>
       </c>
       <c r="L13" t="n">
-        <v>772.2557250070067</v>
+        <v>772.2557250070068</v>
       </c>
       <c r="M13" t="n">
         <v>1161.346880307791</v>
@@ -5215,34 +5215,34 @@
         <v>1892.056292130728</v>
       </c>
       <c r="P13" t="n">
-        <v>2169.791047611138</v>
+        <v>2169.791047611139</v>
       </c>
       <c r="Q13" t="n">
-        <v>2292.729295408322</v>
+        <v>2292.729295408323</v>
       </c>
       <c r="R13" t="n">
-        <v>2249.360507494394</v>
+        <v>2249.360507494395</v>
       </c>
       <c r="S13" t="n">
         <v>2104.287832603442</v>
       </c>
       <c r="T13" t="n">
-        <v>1929.206819427446</v>
+        <v>1929.206819427447</v>
       </c>
       <c r="U13" t="n">
-        <v>1686.812768587201</v>
+        <v>1686.812768587202</v>
       </c>
       <c r="V13" t="n">
-        <v>1478.83739659361</v>
+        <v>1478.837396593611</v>
       </c>
       <c r="W13" t="n">
-        <v>1236.129342768945</v>
+        <v>1236.129342768947</v>
       </c>
       <c r="X13" t="n">
-        <v>1054.848908083224</v>
+        <v>1054.848908083225</v>
       </c>
       <c r="Y13" t="n">
-        <v>880.76544515199</v>
+        <v>880.7654451519913</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1806.716810830616</v>
+        <v>1663.322046576566</v>
       </c>
       <c r="C14" t="n">
-        <v>1705.345434425762</v>
+        <v>1341.06864584845</v>
       </c>
       <c r="D14" t="n">
-        <v>1393.788852031307</v>
+        <v>1029.512063453996</v>
       </c>
       <c r="E14" t="n">
-        <v>1054.709715645359</v>
+        <v>690.4329270680475</v>
       </c>
       <c r="F14" t="n">
-        <v>690.4329270680473</v>
+        <v>690.4329270680475</v>
       </c>
       <c r="G14" t="n">
-        <v>322.0573245362086</v>
+        <v>322.0573245362085</v>
       </c>
       <c r="H14" t="n">
-        <v>71.05719466882816</v>
+        <v>71.05719466882813</v>
       </c>
       <c r="I14" t="n">
-        <v>71.05719466882816</v>
+        <v>71.05719466882813</v>
       </c>
       <c r="J14" t="n">
         <v>258.915765956268</v>
@@ -5282,46 +5282,46 @@
         <v>591.2055852512108</v>
       </c>
       <c r="L14" t="n">
-        <v>1277.564633866417</v>
+        <v>1277.564633866416</v>
       </c>
       <c r="M14" t="n">
-        <v>1808.985151349331</v>
+        <v>1808.985151349329</v>
       </c>
       <c r="N14" t="n">
-        <v>2353.618416766997</v>
+        <v>2353.618416766995</v>
       </c>
       <c r="O14" t="n">
-        <v>2854.564904072309</v>
+        <v>2854.564904072307</v>
       </c>
       <c r="P14" t="n">
-        <v>3247.610140321844</v>
+        <v>3247.610140321842</v>
       </c>
       <c r="Q14" t="n">
-        <v>3494.597997378076</v>
+        <v>3494.597997378075</v>
       </c>
       <c r="R14" t="n">
-        <v>3552.859733441408</v>
+        <v>3552.859733441406</v>
       </c>
       <c r="S14" t="n">
-        <v>3488.998610705964</v>
+        <v>3488.998610705962</v>
       </c>
       <c r="T14" t="n">
-        <v>3329.676273553558</v>
+        <v>3329.676273553557</v>
       </c>
       <c r="U14" t="n">
-        <v>3122.85393155256</v>
+        <v>3122.853931552559</v>
       </c>
       <c r="V14" t="n">
-        <v>3122.85393155256</v>
+        <v>2838.500160421284</v>
       </c>
       <c r="W14" t="n">
-        <v>2816.794392494742</v>
+        <v>2532.440621363466</v>
       </c>
       <c r="X14" t="n">
-        <v>2490.037750445958</v>
+        <v>2205.683979314682</v>
       </c>
       <c r="Y14" t="n">
-        <v>2146.607534682442</v>
+        <v>1862.253763551166</v>
       </c>
     </row>
     <row r="15">
@@ -5349,10 +5349,10 @@
         <v>170.6277570713755</v>
       </c>
       <c r="H15" t="n">
-        <v>80.0624656429662</v>
+        <v>80.06246564296617</v>
       </c>
       <c r="I15" t="n">
-        <v>71.05719466882816</v>
+        <v>71.05719466882813</v>
       </c>
       <c r="J15" t="n">
         <v>164.1266258105828</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>769.4148757425163</v>
+        <v>745.8260965340475</v>
       </c>
       <c r="C16" t="n">
-        <v>647.1878090269054</v>
+        <v>623.5990298184366</v>
       </c>
       <c r="D16" t="n">
-        <v>543.7802858268657</v>
+        <v>520.1915066183969</v>
       </c>
       <c r="E16" t="n">
-        <v>442.5763084567686</v>
+        <v>418.9875292482999</v>
       </c>
       <c r="F16" t="n">
-        <v>342.3954771711542</v>
+        <v>318.8066979626856</v>
       </c>
       <c r="G16" t="n">
-        <v>221.396253491446</v>
+        <v>197.8074742829775</v>
       </c>
       <c r="H16" t="n">
-        <v>121.8392538774613</v>
+        <v>121.8392538774612</v>
       </c>
       <c r="I16" t="n">
-        <v>71.05719466882816</v>
+        <v>71.05719466882813</v>
       </c>
       <c r="J16" t="n">
-        <v>161.5780936691588</v>
+        <v>161.5780936691589</v>
       </c>
       <c r="K16" t="n">
-        <v>410.7182255365943</v>
+        <v>410.7182255365944</v>
       </c>
       <c r="L16" t="n">
-        <v>772.2557250070067</v>
+        <v>772.2557250070071</v>
       </c>
       <c r="M16" t="n">
-        <v>1161.34688030779</v>
+        <v>1161.346880307791</v>
       </c>
       <c r="N16" t="n">
-        <v>1547.709470698556</v>
+        <v>1547.709470698557</v>
       </c>
       <c r="O16" t="n">
         <v>1892.056292130728</v>
       </c>
       <c r="P16" t="n">
-        <v>2169.791047611138</v>
+        <v>2169.791047611139</v>
       </c>
       <c r="Q16" t="n">
-        <v>2292.729295408322</v>
+        <v>2292.729295408323</v>
       </c>
       <c r="R16" t="n">
-        <v>2272.949286702865</v>
+        <v>2249.360507494395</v>
       </c>
       <c r="S16" t="n">
-        <v>2127.876611811912</v>
+        <v>2104.287832603442</v>
       </c>
       <c r="T16" t="n">
-        <v>1952.795598635917</v>
+        <v>1929.206819427447</v>
       </c>
       <c r="U16" t="n">
-        <v>1710.401547795672</v>
+        <v>1686.812768587202</v>
       </c>
       <c r="V16" t="n">
-        <v>1502.42617580208</v>
+        <v>1478.837396593611</v>
       </c>
       <c r="W16" t="n">
-        <v>1259.718121977416</v>
+        <v>1236.129342768947</v>
       </c>
       <c r="X16" t="n">
-        <v>1078.437687291694</v>
+        <v>1054.848908083225</v>
       </c>
       <c r="Y16" t="n">
-        <v>904.35422436046</v>
+        <v>880.7654451519911</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2013.539152831615</v>
+        <v>2027.598835153877</v>
       </c>
       <c r="C17" t="n">
         <v>1705.345434425762</v>
@@ -5501,64 +5501,64 @@
         <v>1054.709715645359</v>
       </c>
       <c r="F17" t="n">
-        <v>690.4329270680477</v>
+        <v>690.4329270680474</v>
       </c>
       <c r="G17" t="n">
-        <v>322.0573245362086</v>
+        <v>322.0573245362085</v>
       </c>
       <c r="H17" t="n">
-        <v>71.05719466882816</v>
+        <v>71.05719466882813</v>
       </c>
       <c r="I17" t="n">
-        <v>71.05719466882816</v>
+        <v>71.05719466882813</v>
       </c>
       <c r="J17" t="n">
         <v>258.915765956268</v>
       </c>
       <c r="K17" t="n">
-        <v>591.2055852512108</v>
+        <v>828.4279680973362</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.34225102029</v>
+        <v>1277.564633866416</v>
       </c>
       <c r="M17" t="n">
-        <v>1571.762768503203</v>
+        <v>1808.985151349329</v>
       </c>
       <c r="N17" t="n">
-        <v>2116.396033920869</v>
+        <v>2353.618416766995</v>
       </c>
       <c r="O17" t="n">
-        <v>2617.342521226182</v>
+        <v>2854.564904072307</v>
       </c>
       <c r="P17" t="n">
-        <v>3247.610140321844</v>
+        <v>3247.610140321842</v>
       </c>
       <c r="Q17" t="n">
-        <v>3494.597997378076</v>
+        <v>3494.597997378075</v>
       </c>
       <c r="R17" t="n">
-        <v>3552.859733441408</v>
+        <v>3552.859733441406</v>
       </c>
       <c r="S17" t="n">
-        <v>3488.998610705964</v>
+        <v>3488.998610705962</v>
       </c>
       <c r="T17" t="n">
-        <v>3329.676273553558</v>
+        <v>3329.676273553557</v>
       </c>
       <c r="U17" t="n">
-        <v>3329.676273553558</v>
+        <v>3122.853931552559</v>
       </c>
       <c r="V17" t="n">
-        <v>3329.676273553558</v>
+        <v>3122.853931552559</v>
       </c>
       <c r="W17" t="n">
-        <v>3023.61673449574</v>
+        <v>2816.794392494741</v>
       </c>
       <c r="X17" t="n">
-        <v>2696.860092446956</v>
+        <v>2490.037750445957</v>
       </c>
       <c r="Y17" t="n">
-        <v>2353.42987668344</v>
+        <v>2146.607534682441</v>
       </c>
     </row>
     <row r="18">
@@ -5586,25 +5586,25 @@
         <v>170.6277570713755</v>
       </c>
       <c r="H18" t="n">
-        <v>80.0624656429662</v>
+        <v>80.06246564296617</v>
       </c>
       <c r="I18" t="n">
-        <v>71.05719466882816</v>
+        <v>71.05719466882813</v>
       </c>
       <c r="J18" t="n">
-        <v>164.1266258105823</v>
+        <v>164.1266258105828</v>
       </c>
       <c r="K18" t="n">
-        <v>401.3519322376553</v>
+        <v>401.3519322376558</v>
       </c>
       <c r="L18" t="n">
-        <v>766.6531733051395</v>
+        <v>766.6531733051399</v>
       </c>
       <c r="M18" t="n">
         <v>1212.299359656753</v>
       </c>
       <c r="N18" t="n">
-        <v>1684.149119415227</v>
+        <v>1684.149119415228</v>
       </c>
       <c r="O18" t="n">
         <v>2093.579671062485</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>745.8260965340461</v>
+        <v>769.4148757425157</v>
       </c>
       <c r="C19" t="n">
-        <v>623.5990298184352</v>
+        <v>647.1878090269049</v>
       </c>
       <c r="D19" t="n">
-        <v>520.1915066183955</v>
+        <v>543.7802858268652</v>
       </c>
       <c r="E19" t="n">
-        <v>418.9875292482984</v>
+        <v>442.5763084567682</v>
       </c>
       <c r="F19" t="n">
-        <v>318.806697962684</v>
+        <v>342.395477171154</v>
       </c>
       <c r="G19" t="n">
-        <v>221.3962534914461</v>
+        <v>221.3962534914459</v>
       </c>
       <c r="H19" t="n">
-        <v>121.8392538774613</v>
+        <v>121.8392538774612</v>
       </c>
       <c r="I19" t="n">
-        <v>71.05719466882816</v>
+        <v>71.05719466882813</v>
       </c>
       <c r="J19" t="n">
         <v>161.5780936691588</v>
       </c>
       <c r="K19" t="n">
-        <v>410.7182255365942</v>
+        <v>410.7182255365944</v>
       </c>
       <c r="L19" t="n">
-        <v>772.2557250070067</v>
+        <v>772.2557250070074</v>
       </c>
       <c r="M19" t="n">
-        <v>1161.34688030779</v>
+        <v>1161.346880307791</v>
       </c>
       <c r="N19" t="n">
-        <v>1547.709470698556</v>
+        <v>1547.709470698557</v>
       </c>
       <c r="O19" t="n">
-        <v>1892.056292130728</v>
+        <v>1892.056292130729</v>
       </c>
       <c r="P19" t="n">
-        <v>2169.791047611138</v>
+        <v>2169.791047611139</v>
       </c>
       <c r="Q19" t="n">
-        <v>2292.729295408322</v>
+        <v>2292.729295408324</v>
       </c>
       <c r="R19" t="n">
-        <v>2249.360507494394</v>
+        <v>2272.949286702863</v>
       </c>
       <c r="S19" t="n">
-        <v>2104.287832603441</v>
+        <v>2127.876611811911</v>
       </c>
       <c r="T19" t="n">
-        <v>1929.206819427446</v>
+        <v>1952.795598635916</v>
       </c>
       <c r="U19" t="n">
-        <v>1686.812768587201</v>
+        <v>1710.40154779567</v>
       </c>
       <c r="V19" t="n">
-        <v>1478.83739659361</v>
+        <v>1502.426175802079</v>
       </c>
       <c r="W19" t="n">
-        <v>1236.129342768945</v>
+        <v>1259.718121977415</v>
       </c>
       <c r="X19" t="n">
-        <v>1054.848908083224</v>
+        <v>1078.437687291693</v>
       </c>
       <c r="Y19" t="n">
-        <v>880.7654451519898</v>
+        <v>904.3542243604594</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2027.598835153878</v>
+        <v>2027.598835153877</v>
       </c>
       <c r="C20" t="n">
         <v>1705.345434425762</v>
@@ -5738,64 +5738,64 @@
         <v>1054.709715645359</v>
       </c>
       <c r="F20" t="n">
-        <v>690.4329270680477</v>
+        <v>690.4329270680475</v>
       </c>
       <c r="G20" t="n">
-        <v>322.0573245362086</v>
+        <v>322.0573245362085</v>
       </c>
       <c r="H20" t="n">
-        <v>71.05719466882816</v>
+        <v>71.05719466882813</v>
       </c>
       <c r="I20" t="n">
-        <v>71.05719466882816</v>
+        <v>71.05719466882813</v>
       </c>
       <c r="J20" t="n">
-        <v>258.915765956268</v>
+        <v>258.9157659562679</v>
       </c>
       <c r="K20" t="n">
-        <v>828.4279680973381</v>
+        <v>828.4279680973377</v>
       </c>
       <c r="L20" t="n">
         <v>1277.564633866417</v>
       </c>
       <c r="M20" t="n">
-        <v>1808.985151349331</v>
+        <v>1808.98515134933</v>
       </c>
       <c r="N20" t="n">
-        <v>2353.618416766997</v>
+        <v>2353.618416766996</v>
       </c>
       <c r="O20" t="n">
-        <v>2854.564904072309</v>
+        <v>2854.564904072308</v>
       </c>
       <c r="P20" t="n">
-        <v>3247.610140321844</v>
+        <v>3247.610140321843</v>
       </c>
       <c r="Q20" t="n">
-        <v>3494.597997378076</v>
+        <v>3494.597997378075</v>
       </c>
       <c r="R20" t="n">
-        <v>3552.859733441408</v>
+        <v>3552.859733441406</v>
       </c>
       <c r="S20" t="n">
-        <v>3488.998610705964</v>
+        <v>3488.998610705962</v>
       </c>
       <c r="T20" t="n">
-        <v>3329.676273553559</v>
+        <v>3329.676273553557</v>
       </c>
       <c r="U20" t="n">
-        <v>3329.676273553559</v>
+        <v>3122.853931552559</v>
       </c>
       <c r="V20" t="n">
-        <v>3045.322502422284</v>
+        <v>3003.845232023995</v>
       </c>
       <c r="W20" t="n">
-        <v>2739.262963364466</v>
+        <v>2697.785692966177</v>
       </c>
       <c r="X20" t="n">
-        <v>2412.506321315682</v>
+        <v>2371.029050917393</v>
       </c>
       <c r="Y20" t="n">
-        <v>2367.489559005704</v>
+        <v>2027.598835153877</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>936.1568734335987</v>
+        <v>936.1568734335979</v>
       </c>
       <c r="C21" t="n">
-        <v>761.7038441524717</v>
+        <v>761.7038441524709</v>
       </c>
       <c r="D21" t="n">
-        <v>612.7694344912204</v>
+        <v>612.7694344912197</v>
       </c>
       <c r="E21" t="n">
-        <v>453.5319794857649</v>
+        <v>453.5319794857642</v>
       </c>
       <c r="F21" t="n">
-        <v>306.9974215126498</v>
+        <v>306.9974215126493</v>
       </c>
       <c r="G21" t="n">
         <v>170.6277570713755</v>
       </c>
       <c r="H21" t="n">
-        <v>80.0624656429662</v>
+        <v>80.06246564296619</v>
       </c>
       <c r="I21" t="n">
-        <v>71.05719466882816</v>
+        <v>71.05719466882813</v>
       </c>
       <c r="J21" t="n">
-        <v>164.1266258105823</v>
+        <v>164.1266258105827</v>
       </c>
       <c r="K21" t="n">
-        <v>401.3519322376553</v>
+        <v>401.3519322376557</v>
       </c>
       <c r="L21" t="n">
-        <v>766.6531733051395</v>
+        <v>766.6531733051397</v>
       </c>
       <c r="M21" t="n">
         <v>1212.299359656753</v>
       </c>
       <c r="N21" t="n">
-        <v>1684.149119415227</v>
+        <v>1684.149119415228</v>
       </c>
       <c r="O21" t="n">
         <v>2093.579671062485</v>
@@ -5850,22 +5850,22 @@
         <v>2402.850718551178</v>
       </c>
       <c r="Q21" t="n">
-        <v>2559.67102707725</v>
+        <v>2559.671027077249</v>
       </c>
       <c r="R21" t="n">
-        <v>2559.67102707725</v>
+        <v>2559.671027077249</v>
       </c>
       <c r="S21" t="n">
-        <v>2430.111212062246</v>
+        <v>2430.111212062245</v>
       </c>
       <c r="T21" t="n">
-        <v>2237.441753109807</v>
+        <v>2237.441753109806</v>
       </c>
       <c r="U21" t="n">
-        <v>2009.373474384098</v>
+        <v>2009.373474384097</v>
       </c>
       <c r="V21" t="n">
-        <v>1774.221366152355</v>
+        <v>1774.221366152354</v>
       </c>
       <c r="W21" t="n">
         <v>1519.984009424153</v>
@@ -5874,7 +5874,7 @@
         <v>1312.13250921862</v>
       </c>
       <c r="Y21" t="n">
-        <v>1104.372210453667</v>
+        <v>1104.372210453666</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>745.8260965340462</v>
+        <v>769.4148757425157</v>
       </c>
       <c r="C22" t="n">
-        <v>623.5990298184353</v>
+        <v>647.1878090269049</v>
       </c>
       <c r="D22" t="n">
-        <v>520.1915066183956</v>
+        <v>543.7802858268652</v>
       </c>
       <c r="E22" t="n">
-        <v>418.9875292482984</v>
+        <v>442.5763084567682</v>
       </c>
       <c r="F22" t="n">
-        <v>318.806697962684</v>
+        <v>342.3954771711542</v>
       </c>
       <c r="G22" t="n">
-        <v>197.8074742829758</v>
+        <v>221.3962534914459</v>
       </c>
       <c r="H22" t="n">
-        <v>98.25047466899001</v>
+        <v>121.8392538774612</v>
       </c>
       <c r="I22" t="n">
-        <v>71.05719466882816</v>
+        <v>71.05719466882813</v>
       </c>
       <c r="J22" t="n">
         <v>161.5780936691589</v>
@@ -5914,25 +5914,25 @@
         <v>410.7182255365943</v>
       </c>
       <c r="L22" t="n">
-        <v>772.2557250070067</v>
+        <v>772.2557250070068</v>
       </c>
       <c r="M22" t="n">
         <v>1161.346880307791</v>
       </c>
       <c r="N22" t="n">
-        <v>1547.709470698556</v>
+        <v>1547.709470698557</v>
       </c>
       <c r="O22" t="n">
         <v>1892.056292130728</v>
       </c>
       <c r="P22" t="n">
-        <v>2169.791047611138</v>
+        <v>2169.791047611139</v>
       </c>
       <c r="Q22" t="n">
-        <v>2292.729295408322</v>
+        <v>2292.729295408323</v>
       </c>
       <c r="R22" t="n">
-        <v>2249.360507494394</v>
+        <v>2249.360507494395</v>
       </c>
       <c r="S22" t="n">
         <v>2104.287832603442</v>
@@ -5941,19 +5941,19 @@
         <v>1929.206819427447</v>
       </c>
       <c r="U22" t="n">
-        <v>1686.812768587201</v>
+        <v>1710.40154779567</v>
       </c>
       <c r="V22" t="n">
-        <v>1478.83739659361</v>
+        <v>1502.42617580208</v>
       </c>
       <c r="W22" t="n">
-        <v>1236.129342768946</v>
+        <v>1259.718121977415</v>
       </c>
       <c r="X22" t="n">
-        <v>1054.848908083224</v>
+        <v>1078.437687291693</v>
       </c>
       <c r="Y22" t="n">
-        <v>880.76544515199</v>
+        <v>904.3542243604594</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2037.909769754991</v>
+        <v>2037.90976975499</v>
       </c>
       <c r="C23" t="n">
-        <v>1715.656369026875</v>
+        <v>1715.656369026874</v>
       </c>
       <c r="D23" t="n">
         <v>1404.09978663242</v>
@@ -5978,58 +5978,58 @@
         <v>700.7438616691607</v>
       </c>
       <c r="G23" t="n">
-        <v>332.3682591373216</v>
+        <v>332.3682591373214</v>
       </c>
       <c r="H23" t="n">
-        <v>81.36812926994114</v>
+        <v>81.36812926994111</v>
       </c>
       <c r="I23" t="n">
-        <v>81.36812926994114</v>
+        <v>81.36812926994111</v>
       </c>
       <c r="J23" t="n">
         <v>269.226700557381</v>
       </c>
       <c r="K23" t="n">
-        <v>922.4204782977769</v>
+        <v>601.5165198523238</v>
       </c>
       <c r="L23" t="n">
-        <v>1371.557144066856</v>
+        <v>1050.653185621403</v>
       </c>
       <c r="M23" t="n">
-        <v>1902.97766154977</v>
+        <v>2027.092101262221</v>
       </c>
       <c r="N23" t="n">
-        <v>2447.610926967436</v>
+        <v>2869.165146822644</v>
       </c>
       <c r="O23" t="n">
-        <v>3325.549593722866</v>
+        <v>3370.111634127957</v>
       </c>
       <c r="P23" t="n">
-        <v>3763.156870377492</v>
+        <v>3763.156870377491</v>
       </c>
       <c r="Q23" t="n">
-        <v>4010.144727433725</v>
+        <v>4010.144727433724</v>
       </c>
       <c r="R23" t="n">
-        <v>4068.406463497056</v>
+        <v>4068.406463497055</v>
       </c>
       <c r="S23" t="n">
-        <v>4004.545340761612</v>
+        <v>4004.545340761611</v>
       </c>
       <c r="T23" t="n">
-        <v>3845.223003609207</v>
+        <v>3845.223003609206</v>
       </c>
       <c r="U23" t="n">
         <v>3638.400661608208</v>
       </c>
       <c r="V23" t="n">
-        <v>3354.046890476934</v>
+        <v>3354.046890476933</v>
       </c>
       <c r="W23" t="n">
-        <v>3047.987351419116</v>
+        <v>3047.987351419115</v>
       </c>
       <c r="X23" t="n">
-        <v>2721.230709370332</v>
+        <v>2721.230709370331</v>
       </c>
       <c r="Y23" t="n">
         <v>2377.800493606816</v>
@@ -6057,37 +6057,37 @@
         <v>317.3083561137628</v>
       </c>
       <c r="G24" t="n">
-        <v>180.9386916724885</v>
+        <v>180.9386916724884</v>
       </c>
       <c r="H24" t="n">
-        <v>90.37340024407918</v>
+        <v>90.37340024407915</v>
       </c>
       <c r="I24" t="n">
-        <v>81.36812926994114</v>
+        <v>81.36812926994111</v>
       </c>
       <c r="J24" t="n">
-        <v>174.4375604116958</v>
+        <v>174.4375604116957</v>
       </c>
       <c r="K24" t="n">
         <v>411.6628668387688</v>
       </c>
       <c r="L24" t="n">
-        <v>776.9641079062529</v>
+        <v>776.9641079062524</v>
       </c>
       <c r="M24" t="n">
-        <v>1222.610294257867</v>
+        <v>1222.610294257866</v>
       </c>
       <c r="N24" t="n">
-        <v>1694.460054016341</v>
+        <v>1694.46005401634</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.890605663598</v>
+        <v>2103.890605663597</v>
       </c>
       <c r="P24" t="n">
         <v>2413.161653152291</v>
       </c>
       <c r="Q24" t="n">
-        <v>2569.981961678363</v>
+        <v>2569.981961678362</v>
       </c>
       <c r="R24" t="n">
         <v>2569.981961678362</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>779.7258103436294</v>
+        <v>756.1370311351608</v>
       </c>
       <c r="C25" t="n">
-        <v>657.4987436280185</v>
+        <v>633.90996441955</v>
       </c>
       <c r="D25" t="n">
-        <v>554.0912204279788</v>
+        <v>530.5024412195103</v>
       </c>
       <c r="E25" t="n">
-        <v>452.8872430578817</v>
+        <v>429.2984638494132</v>
       </c>
       <c r="F25" t="n">
-        <v>352.7064117722673</v>
+        <v>329.1176325637989</v>
       </c>
       <c r="G25" t="n">
-        <v>231.7071880925591</v>
+        <v>208.1184088840908</v>
       </c>
       <c r="H25" t="n">
-        <v>132.1501884785743</v>
+        <v>132.1501884785742</v>
       </c>
       <c r="I25" t="n">
-        <v>81.36812926994114</v>
+        <v>81.36812926994111</v>
       </c>
       <c r="J25" t="n">
-        <v>171.8890282702718</v>
+        <v>171.8890282702719</v>
       </c>
       <c r="K25" t="n">
-        <v>421.0291601377073</v>
+        <v>421.0291601377074</v>
       </c>
       <c r="L25" t="n">
-        <v>782.5666596081196</v>
+        <v>782.5666596081199</v>
       </c>
       <c r="M25" t="n">
-        <v>1171.657814908903</v>
+        <v>1171.657814908904</v>
       </c>
       <c r="N25" t="n">
-        <v>1558.020405299669</v>
+        <v>1558.02040529967</v>
       </c>
       <c r="O25" t="n">
         <v>1902.367226731841</v>
       </c>
       <c r="P25" t="n">
-        <v>2180.101982212251</v>
+        <v>2180.101982212252</v>
       </c>
       <c r="Q25" t="n">
-        <v>2303.040230009435</v>
+        <v>2303.040230009436</v>
       </c>
       <c r="R25" t="n">
-        <v>2259.671442095506</v>
+        <v>2259.671442095508</v>
       </c>
       <c r="S25" t="n">
-        <v>2114.598767204553</v>
+        <v>2114.598767204555</v>
       </c>
       <c r="T25" t="n">
-        <v>1939.517754028559</v>
+        <v>1939.51775402856</v>
       </c>
       <c r="U25" t="n">
-        <v>1720.712482396784</v>
+        <v>1697.123703188315</v>
       </c>
       <c r="V25" t="n">
-        <v>1512.737110403193</v>
+        <v>1489.148331194724</v>
       </c>
       <c r="W25" t="n">
-        <v>1270.029056578529</v>
+        <v>1246.440277370059</v>
       </c>
       <c r="X25" t="n">
-        <v>1088.748621892807</v>
+        <v>1065.159842684338</v>
       </c>
       <c r="Y25" t="n">
-        <v>914.6651589615731</v>
+        <v>891.0763797531044</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>95.58032336208746</v>
       </c>
       <c r="J26" t="n">
-        <v>450.8445436698804</v>
+        <v>283.4388946495274</v>
       </c>
       <c r="K26" t="n">
-        <v>1104.038321410276</v>
+        <v>615.7287139444702</v>
       </c>
       <c r="L26" t="n">
-        <v>1553.174987179355</v>
+        <v>1478.349982118496</v>
       </c>
       <c r="M26" t="n">
-        <v>2084.595504662269</v>
+        <v>2009.770499601409</v>
       </c>
       <c r="N26" t="n">
-        <v>2629.228770079935</v>
+        <v>2987.377220186939</v>
       </c>
       <c r="O26" t="n">
-        <v>3507.167436835365</v>
+        <v>3488.323707492252</v>
       </c>
       <c r="P26" t="n">
-        <v>4218.793394174668</v>
+        <v>4199.949664831554</v>
       </c>
       <c r="Q26" t="n">
-        <v>4675.973091984206</v>
+        <v>4655.695176366788</v>
       </c>
       <c r="R26" t="n">
         <v>4779.016168104373</v>
@@ -6260,7 +6260,7 @@
         <v>4208.883017578637</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.820130235066</v>
+        <v>3877.820130235067</v>
       </c>
       <c r="W26" t="n">
         <v>3525.051474964952</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>265.5900361487444</v>
+        <v>413.4053026664274</v>
       </c>
       <c r="C28" t="n">
-        <v>96.65385322083745</v>
+        <v>413.4053026664274</v>
       </c>
       <c r="D28" t="n">
-        <v>96.65385322083745</v>
+        <v>263.2886632540917</v>
       </c>
       <c r="E28" t="n">
-        <v>96.65385322083746</v>
+        <v>263.2886632540917</v>
       </c>
       <c r="F28" t="n">
-        <v>95.58032336208746</v>
+        <v>263.2886632540917</v>
       </c>
       <c r="G28" t="n">
         <v>95.58032336208746</v>
@@ -6385,13 +6385,13 @@
         <v>140.3216175627468</v>
       </c>
       <c r="K28" t="n">
-        <v>343.682144630511</v>
+        <v>343.6821446305109</v>
       </c>
       <c r="L28" t="n">
         <v>659.4400393012521</v>
       </c>
       <c r="M28" t="n">
-        <v>1002.751589802365</v>
+        <v>1002.751589802364</v>
       </c>
       <c r="N28" t="n">
         <v>1343.334575393459</v>
@@ -6409,25 +6409,25 @@
         <v>1951.015585704211</v>
       </c>
       <c r="S28" t="n">
-        <v>1951.015585704211</v>
+        <v>1759.233794600962</v>
       </c>
       <c r="T28" t="n">
-        <v>1729.22545631592</v>
+        <v>1587.937555781062</v>
       </c>
       <c r="U28" t="n">
-        <v>1440.122289263379</v>
+        <v>1587.937555781062</v>
       </c>
       <c r="V28" t="n">
-        <v>1185.437801057492</v>
+        <v>1333.253067575175</v>
       </c>
       <c r="W28" t="n">
-        <v>896.0206310205315</v>
+        <v>1043.835897538215</v>
       </c>
       <c r="X28" t="n">
-        <v>668.0310801225141</v>
+        <v>815.8463466401972</v>
       </c>
       <c r="Y28" t="n">
-        <v>447.2385009789841</v>
+        <v>595.0537674966671</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.846544663938</v>
+        <v>2374.846544663937</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.884027723527</v>
+        <v>2005.884027723526</v>
       </c>
       <c r="D29" t="n">
         <v>1647.618329116776</v>
@@ -6449,64 +6449,64 @@
         <v>1261.830076518532</v>
       </c>
       <c r="F29" t="n">
-        <v>850.8441717289248</v>
+        <v>850.8441717289243</v>
       </c>
       <c r="G29" t="n">
-        <v>435.7594529847897</v>
+        <v>435.7594529847893</v>
       </c>
       <c r="H29" t="n">
         <v>138.0502069051133</v>
       </c>
       <c r="I29" t="n">
-        <v>95.58032336208748</v>
+        <v>95.58032336208746</v>
       </c>
       <c r="J29" t="n">
-        <v>283.4388946495274</v>
+        <v>365.7588720603928</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6326723899232</v>
+        <v>698.0486913553356</v>
       </c>
       <c r="L29" t="n">
-        <v>1799.253940563948</v>
+        <v>1560.669959529361</v>
       </c>
       <c r="M29" t="n">
-        <v>2330.674458046862</v>
+        <v>2537.108875170179</v>
       </c>
       <c r="N29" t="n">
-        <v>2875.307723464528</v>
+        <v>3514.715595755709</v>
       </c>
       <c r="O29" t="n">
-        <v>3753.246390219958</v>
+        <v>4015.662083061021</v>
       </c>
       <c r="P29" t="n">
-        <v>4464.872347559261</v>
+        <v>4408.707319310556</v>
       </c>
       <c r="Q29" t="n">
-        <v>4711.860204615493</v>
+        <v>4655.695176366788</v>
       </c>
       <c r="R29" t="n">
-        <v>4779.016168104374</v>
+        <v>4779.016168104373</v>
       </c>
       <c r="S29" t="n">
-        <v>4668.445929156634</v>
+        <v>4668.445929156632</v>
       </c>
       <c r="T29" t="n">
-        <v>4462.414475791932</v>
+        <v>4462.41447579193</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.883017578638</v>
+        <v>4208.883017578636</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.820130235066</v>
+        <v>3877.820130235065</v>
       </c>
       <c r="W29" t="n">
-        <v>3525.051474964952</v>
+        <v>3525.051474964951</v>
       </c>
       <c r="X29" t="n">
-        <v>3151.585716703872</v>
+        <v>3151.585716703871</v>
       </c>
       <c r="Y29" t="n">
-        <v>2761.44638472806</v>
+        <v>2761.446384728059</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>960.6800021268579</v>
+        <v>960.6800021268584</v>
       </c>
       <c r="C30" t="n">
-        <v>786.2269728457309</v>
+        <v>786.2269728457314</v>
       </c>
       <c r="D30" t="n">
-        <v>637.2925631844796</v>
+        <v>637.2925631844802</v>
       </c>
       <c r="E30" t="n">
-        <v>478.0551081790242</v>
+        <v>478.0551081790247</v>
       </c>
       <c r="F30" t="n">
-        <v>331.5205502059091</v>
+        <v>331.5205502059097</v>
       </c>
       <c r="G30" t="n">
-        <v>195.1508857646348</v>
+        <v>195.1508857646353</v>
       </c>
       <c r="H30" t="n">
-        <v>104.5855943362255</v>
+        <v>104.5855943362261</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58032336208748</v>
+        <v>95.58032336208746</v>
       </c>
       <c r="J30" t="n">
         <v>188.6497545038421</v>
@@ -6546,7 +6546,7 @@
         <v>425.8750609309151</v>
       </c>
       <c r="L30" t="n">
-        <v>791.1763019983994</v>
+        <v>791.1763019983993</v>
       </c>
       <c r="M30" t="n">
         <v>1236.822488350013</v>
@@ -6576,7 +6576,7 @@
         <v>2033.896603077357</v>
       </c>
       <c r="V30" t="n">
-        <v>1798.744494845614</v>
+        <v>1798.744494845615</v>
       </c>
       <c r="W30" t="n">
         <v>1544.507138117413</v>
@@ -6585,7 +6585,7 @@
         <v>1336.65563791188</v>
       </c>
       <c r="Y30" t="n">
-        <v>1128.895339146926</v>
+        <v>1128.895339146927</v>
       </c>
     </row>
     <row r="31">
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>255.4567098757351</v>
+        <v>824.5190626832309</v>
       </c>
       <c r="C31" t="n">
-        <v>95.58032336208748</v>
+        <v>655.582879755324</v>
       </c>
       <c r="D31" t="n">
-        <v>95.58032336208748</v>
+        <v>655.582879755324</v>
       </c>
       <c r="E31" t="n">
-        <v>95.58032336208748</v>
+        <v>507.669786172931</v>
       </c>
       <c r="F31" t="n">
-        <v>95.58032336208748</v>
+        <v>360.7798386750208</v>
       </c>
       <c r="G31" t="n">
-        <v>95.58032336208748</v>
+        <v>193.0714987830166</v>
       </c>
       <c r="H31" t="n">
-        <v>95.58032336208748</v>
+        <v>193.0714987830166</v>
       </c>
       <c r="I31" t="n">
-        <v>95.58032336208748</v>
+        <v>95.58032336208746</v>
       </c>
       <c r="J31" t="n">
-        <v>140.3216175627469</v>
+        <v>140.3216175627468</v>
       </c>
       <c r="K31" t="n">
-        <v>343.6821446305111</v>
+        <v>343.682144630511</v>
       </c>
       <c r="L31" t="n">
-        <v>659.4400393012522</v>
+        <v>659.440039301252</v>
       </c>
       <c r="M31" t="n">
         <v>1002.751589802365</v>
@@ -6637,34 +6637,34 @@
         <v>1641.901792025959</v>
       </c>
       <c r="P31" t="n">
-        <v>1873.856942706699</v>
+        <v>1873.856942706698</v>
       </c>
       <c r="Q31" t="n">
         <v>1951.015585704211</v>
       </c>
       <c r="R31" t="n">
-        <v>1951.015585704211</v>
+        <v>1860.937681577988</v>
       </c>
       <c r="S31" t="n">
-        <v>1759.233794600962</v>
+        <v>1860.937681577988</v>
       </c>
       <c r="T31" t="n">
-        <v>1537.443665212671</v>
+        <v>1860.937681577988</v>
       </c>
       <c r="U31" t="n">
-        <v>1248.34049816013</v>
+        <v>1744.366827591979</v>
       </c>
       <c r="V31" t="n">
-        <v>993.6560099542432</v>
+        <v>1744.366827591979</v>
       </c>
       <c r="W31" t="n">
-        <v>704.2388399172826</v>
+        <v>1454.949657555018</v>
       </c>
       <c r="X31" t="n">
-        <v>476.2492890192652</v>
+        <v>1226.960106657001</v>
       </c>
       <c r="Y31" t="n">
-        <v>255.4567098757351</v>
+        <v>1006.167527513471</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2351.386016595806</v>
+        <v>2351.386016595807</v>
       </c>
       <c r="C32" t="n">
         <v>1985.634577519469</v>
@@ -6686,43 +6686,43 @@
         <v>1248.002782042622</v>
       </c>
       <c r="F32" t="n">
-        <v>840.2279551170883</v>
+        <v>840.2279551170884</v>
       </c>
       <c r="G32" t="n">
-        <v>428.3543142370274</v>
+        <v>428.3543142370273</v>
       </c>
       <c r="H32" t="n">
-        <v>133.8561460214249</v>
+        <v>133.8561460214248</v>
       </c>
       <c r="I32" t="n">
-        <v>94.59734034247298</v>
+        <v>94.59734034247296</v>
       </c>
       <c r="J32" t="n">
-        <v>449.8615606502658</v>
+        <v>449.8615606502659</v>
       </c>
       <c r="K32" t="n">
         <v>1103.055338390662</v>
       </c>
       <c r="L32" t="n">
-        <v>1552.192004159741</v>
+        <v>1758.999017008772</v>
       </c>
       <c r="M32" t="n">
-        <v>2083.612521642654</v>
+        <v>2290.419534491686</v>
       </c>
       <c r="N32" t="n">
-        <v>2628.24578706032</v>
+        <v>2835.052799909352</v>
       </c>
       <c r="O32" t="n">
-        <v>3506.18445381575</v>
+        <v>3712.991466664782</v>
       </c>
       <c r="P32" t="n">
-        <v>4217.810411155053</v>
+        <v>4424.617424004085</v>
       </c>
       <c r="Q32" t="n">
-        <v>4671.605281060318</v>
+        <v>4671.605281060317</v>
       </c>
       <c r="R32" t="n">
-        <v>4729.867017123649</v>
+        <v>4729.867017123648</v>
       </c>
       <c r="S32" t="n">
         <v>4622.507856039982</v>
@@ -6753,40 +6753,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>959.6970191072432</v>
+        <v>959.6970191072439</v>
       </c>
       <c r="C33" t="n">
-        <v>785.2439898261163</v>
+        <v>785.2439898261169</v>
       </c>
       <c r="D33" t="n">
-        <v>636.3095801648651</v>
+        <v>636.3095801648657</v>
       </c>
       <c r="E33" t="n">
-        <v>477.0721251594096</v>
+        <v>477.0721251594102</v>
       </c>
       <c r="F33" t="n">
-        <v>330.5375671862947</v>
+        <v>330.5375671862952</v>
       </c>
       <c r="G33" t="n">
-        <v>194.1679027450203</v>
+        <v>194.1679027450209</v>
       </c>
       <c r="H33" t="n">
-        <v>103.602611316611</v>
+        <v>103.6026113166116</v>
       </c>
       <c r="I33" t="n">
-        <v>94.59734034247298</v>
+        <v>94.59734034247296</v>
       </c>
       <c r="J33" t="n">
-        <v>187.6667714842281</v>
+        <v>187.6667714842276</v>
       </c>
       <c r="K33" t="n">
-        <v>424.892077911301</v>
+        <v>424.8920779113006</v>
       </c>
       <c r="L33" t="n">
-        <v>790.1933189787851</v>
+        <v>790.1933189787848</v>
       </c>
       <c r="M33" t="n">
-        <v>1235.839505330399</v>
+        <v>1235.839505330398</v>
       </c>
       <c r="N33" t="n">
         <v>1707.689265088873</v>
@@ -6807,22 +6807,22 @@
         <v>2453.651357735891</v>
       </c>
       <c r="T33" t="n">
-        <v>2260.981898783451</v>
+        <v>2260.981898783452</v>
       </c>
       <c r="U33" t="n">
-        <v>2032.913620057742</v>
+        <v>2032.913620057743</v>
       </c>
       <c r="V33" t="n">
         <v>1797.761511826</v>
       </c>
       <c r="W33" t="n">
-        <v>1543.524155097798</v>
+        <v>1543.524155097799</v>
       </c>
       <c r="X33" t="n">
-        <v>1335.672654892265</v>
+        <v>1335.672654892266</v>
       </c>
       <c r="Y33" t="n">
-        <v>1127.912356127311</v>
+        <v>1127.912356127312</v>
       </c>
     </row>
     <row r="34">
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>529.8435187737349</v>
+        <v>259.0946023704032</v>
       </c>
       <c r="C34" t="n">
-        <v>529.8435187737349</v>
+        <v>259.0946023704032</v>
       </c>
       <c r="D34" t="n">
-        <v>402.14964033261</v>
+        <v>259.0946023704032</v>
       </c>
       <c r="E34" t="n">
-        <v>402.14964033261</v>
+        <v>259.0946023704032</v>
       </c>
       <c r="F34" t="n">
-        <v>402.14964033261</v>
+        <v>259.0946023704032</v>
       </c>
       <c r="G34" t="n">
-        <v>237.6523783046798</v>
+        <v>94.59734034247296</v>
       </c>
       <c r="H34" t="n">
-        <v>94.59734034247298</v>
+        <v>94.59734034247296</v>
       </c>
       <c r="I34" t="n">
-        <v>94.59734034247298</v>
+        <v>94.59734034247296</v>
       </c>
       <c r="J34" t="n">
-        <v>142.4858119577113</v>
+        <v>142.4858119577112</v>
       </c>
       <c r="K34" t="n">
         <v>348.9935164400543</v>
@@ -6883,25 +6883,25 @@
         <v>1975.210022001228</v>
       </c>
       <c r="S34" t="n">
-        <v>1975.210022001228</v>
+        <v>1786.639308762053</v>
       </c>
       <c r="T34" t="n">
-        <v>1756.630970477011</v>
+        <v>1568.060257237836</v>
       </c>
       <c r="U34" t="n">
-        <v>1470.738881288544</v>
+        <v>1282.168168049368</v>
       </c>
       <c r="V34" t="n">
-        <v>1219.265470946731</v>
+        <v>1030.694757707555</v>
       </c>
       <c r="W34" t="n">
-        <v>933.0593787738439</v>
+        <v>744.4886655346688</v>
       </c>
       <c r="X34" t="n">
-        <v>708.2809057399006</v>
+        <v>519.7101925007258</v>
       </c>
       <c r="Y34" t="n">
-        <v>708.2809057399006</v>
+        <v>437.5319893365689</v>
       </c>
     </row>
     <row r="35">
@@ -6935,22 +6935,22 @@
         <v>81.0854352662827</v>
       </c>
       <c r="J35" t="n">
-        <v>436.3496555740757</v>
+        <v>403.7183611577961</v>
       </c>
       <c r="K35" t="n">
-        <v>768.6394748690184</v>
+        <v>736.0081804527389</v>
       </c>
       <c r="L35" t="n">
-        <v>1217.776140638098</v>
+        <v>1185.144846221818</v>
       </c>
       <c r="M35" t="n">
-        <v>1749.196658121011</v>
+        <v>1716.565363704732</v>
       </c>
       <c r="N35" t="n">
-        <v>2293.829923538677</v>
+        <v>2261.198629122398</v>
       </c>
       <c r="O35" t="n">
-        <v>2794.77641084399</v>
+        <v>2762.14511642771</v>
       </c>
       <c r="P35" t="n">
         <v>3473.771073767013</v>
@@ -6971,16 +6971,16 @@
         <v>3627.234248463701</v>
       </c>
       <c r="V35" t="n">
-        <v>3343.86990634523</v>
+        <v>3343.869906345231</v>
       </c>
       <c r="W35" t="n">
-        <v>3038.799796300217</v>
+        <v>3038.799796300218</v>
       </c>
       <c r="X35" t="n">
-        <v>2713.032583264237</v>
+        <v>2713.032583264238</v>
       </c>
       <c r="Y35" t="n">
-        <v>2370.591796513526</v>
+        <v>2370.591796513527</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>81.0854352662827</v>
       </c>
       <c r="J36" t="n">
-        <v>174.1548664080367</v>
+        <v>174.1548664080373</v>
       </c>
       <c r="K36" t="n">
-        <v>411.3801728351098</v>
+        <v>411.3801728351103</v>
       </c>
       <c r="L36" t="n">
-        <v>776.6814139025939</v>
+        <v>776.6814139025945</v>
       </c>
       <c r="M36" t="n">
-        <v>1222.327600254207</v>
+        <v>1222.327600254208</v>
       </c>
       <c r="N36" t="n">
-        <v>1694.177360012682</v>
+        <v>1694.177360012683</v>
       </c>
       <c r="O36" t="n">
         <v>2103.607911659939</v>
       </c>
       <c r="P36" t="n">
-        <v>2412.878959148632</v>
+        <v>2412.878959148633</v>
       </c>
       <c r="Q36" t="n">
         <v>2569.699267674704</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>772.5171132503392</v>
+        <v>772.517113250339</v>
       </c>
       <c r="C37" t="n">
-        <v>651.2794755475328</v>
+        <v>651.2794755475326</v>
       </c>
       <c r="D37" t="n">
-        <v>548.8613813602976</v>
+        <v>548.8613813602974</v>
       </c>
       <c r="E37" t="n">
-        <v>448.646833003005</v>
+        <v>448.6468330030048</v>
       </c>
       <c r="F37" t="n">
-        <v>349.4554307301952</v>
+        <v>349.4554307301949</v>
       </c>
       <c r="G37" t="n">
-        <v>229.4456360632915</v>
+        <v>229.4456360632912</v>
       </c>
       <c r="H37" t="n">
         <v>130.8780654621112</v>
@@ -7093,7 +7093,7 @@
         <v>81.0854352662827</v>
       </c>
       <c r="J37" t="n">
-        <v>172.5760736420632</v>
+        <v>172.5760736420631</v>
       </c>
       <c r="K37" t="n">
         <v>422.6859448849484</v>
@@ -7126,7 +7126,7 @@
         <v>1949.961262066912</v>
       </c>
       <c r="U37" t="n">
-        <v>1708.556640239472</v>
+        <v>1708.556640239471</v>
       </c>
       <c r="V37" t="n">
         <v>1501.570697258685</v>
@@ -7138,7 +7138,7 @@
         <v>1079.561066773908</v>
       </c>
       <c r="Y37" t="n">
-        <v>906.4670328554785</v>
+        <v>906.4670328554782</v>
       </c>
     </row>
     <row r="38">
@@ -7190,10 +7190,10 @@
         <v>2794.77641084399</v>
       </c>
       <c r="P38" t="n">
-        <v>3473.771073767012</v>
+        <v>3473.771073767013</v>
       </c>
       <c r="Q38" t="n">
-        <v>3930.95077157655</v>
+        <v>3930.950771576551</v>
       </c>
       <c r="R38" t="n">
         <v>4054.271763314135</v>
@@ -7251,10 +7251,10 @@
         <v>81.0854352662827</v>
       </c>
       <c r="J39" t="n">
-        <v>174.1548664080367</v>
+        <v>174.1548664080373</v>
       </c>
       <c r="K39" t="n">
-        <v>411.3801728351098</v>
+        <v>411.3801728351103</v>
       </c>
       <c r="L39" t="n">
         <v>776.6814139025939</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>772.517113250339</v>
+        <v>772.5171132503394</v>
       </c>
       <c r="C40" t="n">
-        <v>651.2794755475326</v>
+        <v>651.279475547533</v>
       </c>
       <c r="D40" t="n">
-        <v>548.8613813602974</v>
+        <v>548.8613813602979</v>
       </c>
       <c r="E40" t="n">
-        <v>448.6468330030048</v>
+        <v>448.6468330030052</v>
       </c>
       <c r="F40" t="n">
-        <v>349.4554307301949</v>
+        <v>349.4554307301954</v>
       </c>
       <c r="G40" t="n">
-        <v>229.4456360632912</v>
+        <v>229.4456360632917</v>
       </c>
       <c r="H40" t="n">
-        <v>130.8780654621112</v>
+        <v>130.8780654621114</v>
       </c>
       <c r="I40" t="n">
         <v>81.0854352662827</v>
@@ -7333,22 +7333,22 @@
         <v>172.576073642063</v>
       </c>
       <c r="K40" t="n">
-        <v>422.6859448849482</v>
+        <v>422.6859448849481</v>
       </c>
       <c r="L40" t="n">
-        <v>785.1931837308102</v>
+        <v>785.1931837308105</v>
       </c>
       <c r="M40" t="n">
         <v>1175.254078407044</v>
       </c>
       <c r="N40" t="n">
-        <v>1562.586408173259</v>
+        <v>1562.58640817326</v>
       </c>
       <c r="O40" t="n">
-        <v>1907.90296898088</v>
+        <v>1907.902968980881</v>
       </c>
       <c r="P40" t="n">
-        <v>2186.607463836741</v>
+        <v>2186.607463836742</v>
       </c>
       <c r="Q40" t="n">
         <v>2310.515451009375</v>
@@ -7369,13 +7369,13 @@
         <v>1501.570697258685</v>
       </c>
       <c r="W40" t="n">
-        <v>1259.852072446825</v>
+        <v>1259.852072446824</v>
       </c>
       <c r="X40" t="n">
         <v>1079.561066773908</v>
       </c>
       <c r="Y40" t="n">
-        <v>906.4670328554782</v>
+        <v>906.4670328554787</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2031.690501674505</v>
       </c>
       <c r="C41" t="n">
-        <v>1710.426529959194</v>
+        <v>1710.426529959193</v>
       </c>
       <c r="D41" t="n">
         <v>1399.859376577544</v>
@@ -7409,28 +7409,28 @@
         <v>81.0854352662827</v>
       </c>
       <c r="J41" t="n">
-        <v>436.3496555740757</v>
+        <v>268.9440065537226</v>
       </c>
       <c r="K41" t="n">
-        <v>768.6394748690184</v>
+        <v>601.2338258486654</v>
       </c>
       <c r="L41" t="n">
-        <v>1217.776140638098</v>
+        <v>1333.95826558124</v>
       </c>
       <c r="M41" t="n">
-        <v>1749.196658121011</v>
+        <v>2310.397181222058</v>
       </c>
       <c r="N41" t="n">
-        <v>2293.829923538677</v>
+        <v>2855.030446639724</v>
       </c>
       <c r="O41" t="n">
-        <v>2794.77641084399</v>
+        <v>3355.976933945036</v>
       </c>
       <c r="P41" t="n">
-        <v>3473.771073767012</v>
+        <v>3749.022170194571</v>
       </c>
       <c r="Q41" t="n">
-        <v>3930.95077157655</v>
+        <v>3996.010027250803</v>
       </c>
       <c r="R41" t="n">
         <v>4054.271763314135</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>772.5171132503392</v>
+        <v>772.5171132503393</v>
       </c>
       <c r="C43" t="n">
-        <v>651.2794755475328</v>
+        <v>651.2794755475329</v>
       </c>
       <c r="D43" t="n">
-        <v>548.8613813602976</v>
+        <v>548.8613813602977</v>
       </c>
       <c r="E43" t="n">
-        <v>448.646833003005</v>
+        <v>448.6468330030052</v>
       </c>
       <c r="F43" t="n">
-        <v>349.4554307301952</v>
+        <v>349.4554307301953</v>
       </c>
       <c r="G43" t="n">
-        <v>229.4456360632915</v>
+        <v>229.4456360632916</v>
       </c>
       <c r="H43" t="n">
         <v>130.8780654621113</v>
@@ -7570,19 +7570,19 @@
         <v>172.5760736420631</v>
       </c>
       <c r="K43" t="n">
-        <v>422.6859448849483</v>
+        <v>422.6859448849482</v>
       </c>
       <c r="L43" t="n">
-        <v>785.1931837308105</v>
+        <v>785.1931837308098</v>
       </c>
       <c r="M43" t="n">
-        <v>1175.254078407044</v>
+        <v>1175.254078407043</v>
       </c>
       <c r="N43" t="n">
-        <v>1562.58640817326</v>
+        <v>1562.586408173259</v>
       </c>
       <c r="O43" t="n">
-        <v>1907.902968980881</v>
+        <v>1907.90296898088</v>
       </c>
       <c r="P43" t="n">
         <v>2186.60746383674</v>
@@ -7634,19 +7634,19 @@
         <v>1061.7696692044</v>
       </c>
       <c r="F44" t="n">
-        <v>698.4823096398933</v>
+        <v>698.4823096398932</v>
       </c>
       <c r="G44" t="n">
-        <v>331.0961361208585</v>
+        <v>331.0961361208587</v>
       </c>
       <c r="H44" t="n">
-        <v>81.08543526628269</v>
+        <v>81.0854352662827</v>
       </c>
       <c r="I44" t="n">
-        <v>81.08543526628269</v>
+        <v>81.0854352662827</v>
       </c>
       <c r="J44" t="n">
-        <v>436.3496555740756</v>
+        <v>436.3496555740757</v>
       </c>
       <c r="K44" t="n">
         <v>768.6394748690184</v>
@@ -7661,16 +7661,16 @@
         <v>2293.829923538677</v>
       </c>
       <c r="O44" t="n">
-        <v>3171.768590294108</v>
+        <v>2794.77641084399</v>
       </c>
       <c r="P44" t="n">
-        <v>3564.813826543642</v>
+        <v>3473.771073767013</v>
       </c>
       <c r="Q44" t="n">
-        <v>3930.95077157655</v>
+        <v>3930.950771576551</v>
       </c>
       <c r="R44" t="n">
-        <v>4054.271763314134</v>
+        <v>4054.271763314135</v>
       </c>
       <c r="S44" t="n">
         <v>3991.400069591495</v>
@@ -7682,16 +7682,16 @@
         <v>3627.234248463701</v>
       </c>
       <c r="V44" t="n">
-        <v>3343.86990634523</v>
+        <v>3343.869906345231</v>
       </c>
       <c r="W44" t="n">
         <v>3038.799796300217</v>
       </c>
       <c r="X44" t="n">
-        <v>2713.032583264237</v>
+        <v>2713.032583264238</v>
       </c>
       <c r="Y44" t="n">
-        <v>2370.591796513526</v>
+        <v>2370.591796513527</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>946.1851140310534</v>
+        <v>946.1851140310531</v>
       </c>
       <c r="C45" t="n">
-        <v>771.7320847499265</v>
+        <v>771.7320847499261</v>
       </c>
       <c r="D45" t="n">
-        <v>622.7976750886752</v>
+        <v>622.7976750886749</v>
       </c>
       <c r="E45" t="n">
-        <v>463.5602200832197</v>
+        <v>463.5602200832194</v>
       </c>
       <c r="F45" t="n">
-        <v>317.0256621101047</v>
+        <v>317.0256621101043</v>
       </c>
       <c r="G45" t="n">
-        <v>180.6559976688304</v>
+        <v>180.65599766883</v>
       </c>
       <c r="H45" t="n">
-        <v>90.09070624042108</v>
+        <v>90.09070624042074</v>
       </c>
       <c r="I45" t="n">
-        <v>81.08543526628269</v>
+        <v>81.0854352662827</v>
       </c>
       <c r="J45" t="n">
         <v>174.1548664080373</v>
@@ -7746,13 +7746,13 @@
         <v>2412.878959148633</v>
       </c>
       <c r="Q45" t="n">
-        <v>2569.699267674705</v>
+        <v>2569.699267674704</v>
       </c>
       <c r="R45" t="n">
-        <v>2569.699267674705</v>
+        <v>2569.699267674704</v>
       </c>
       <c r="S45" t="n">
-        <v>2440.139452659701</v>
+        <v>2440.1394526597</v>
       </c>
       <c r="T45" t="n">
         <v>2247.469993707261</v>
@@ -7761,7 +7761,7 @@
         <v>2019.401714981552</v>
       </c>
       <c r="V45" t="n">
-        <v>1784.24960674981</v>
+        <v>1784.249606749809</v>
       </c>
       <c r="W45" t="n">
         <v>1530.012250021608</v>
@@ -7770,7 +7770,7 @@
         <v>1322.160749816075</v>
       </c>
       <c r="Y45" t="n">
-        <v>1114.400451051122</v>
+        <v>1114.400451051121</v>
       </c>
     </row>
     <row r="46">
@@ -7786,70 +7786,70 @@
         <v>651.2794755475327</v>
       </c>
       <c r="D46" t="n">
-        <v>548.8613813602975</v>
+        <v>548.8613813602979</v>
       </c>
       <c r="E46" t="n">
-        <v>448.6468330030049</v>
+        <v>448.6468330030052</v>
       </c>
       <c r="F46" t="n">
-        <v>349.4554307301951</v>
+        <v>349.4554307301954</v>
       </c>
       <c r="G46" t="n">
-        <v>229.4456360632915</v>
+        <v>229.4456360632916</v>
       </c>
       <c r="H46" t="n">
-        <v>130.8780654621113</v>
+        <v>130.8780654621114</v>
       </c>
       <c r="I46" t="n">
-        <v>81.08543526628269</v>
+        <v>81.0854352662827</v>
       </c>
       <c r="J46" t="n">
         <v>172.5760736420631</v>
       </c>
       <c r="K46" t="n">
-        <v>422.6859448849483</v>
+        <v>422.6859448849482</v>
       </c>
       <c r="L46" t="n">
-        <v>785.1931837308107</v>
+        <v>785.1931837308102</v>
       </c>
       <c r="M46" t="n">
         <v>1175.254078407044</v>
       </c>
       <c r="N46" t="n">
-        <v>1562.58640817326</v>
+        <v>1562.586408173259</v>
       </c>
       <c r="O46" t="n">
-        <v>1907.902968980881</v>
+        <v>1907.90296898088</v>
       </c>
       <c r="P46" t="n">
         <v>2186.607463836741</v>
       </c>
       <c r="Q46" t="n">
-        <v>2310.515451009375</v>
+        <v>2310.515451009374</v>
       </c>
       <c r="R46" t="n">
-        <v>2268.136092108252</v>
+        <v>2268.136092108251</v>
       </c>
       <c r="S46" t="n">
-        <v>2124.052846230104</v>
+        <v>2124.052846230102</v>
       </c>
       <c r="T46" t="n">
-        <v>1949.961262066913</v>
+        <v>1949.961262066912</v>
       </c>
       <c r="U46" t="n">
-        <v>1708.556640239472</v>
+        <v>1708.556640239471</v>
       </c>
       <c r="V46" t="n">
-        <v>1501.570697258686</v>
+        <v>1501.570697258684</v>
       </c>
       <c r="W46" t="n">
-        <v>1259.852072446826</v>
+        <v>1259.852072446824</v>
       </c>
       <c r="X46" t="n">
-        <v>1079.561066773909</v>
+        <v>1079.561066773907</v>
       </c>
       <c r="Y46" t="n">
-        <v>906.4670328554782</v>
+        <v>906.4670328554784</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>234.7742961352617</v>
       </c>
       <c r="L2" t="n">
         <v>251.0691524851223</v>
@@ -7991,7 +7991,7 @@
         <v>244.715801111726</v>
       </c>
       <c r="O2" t="n">
-        <v>244.7826565119678</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
         <v>231.2329957552695</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>153.144176489494</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>153.8571172950092</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>157.4367714371534</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>146.6444495984684</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>157.8989819595795</v>
       </c>
       <c r="P3" t="n">
         <v>148.6588525046114</v>
       </c>
       <c r="Q3" t="n">
-        <v>155.2845116011566</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,13 +8216,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>235.3925885601156</v>
+        <v>234.7742961352617</v>
       </c>
       <c r="L5" t="n">
         <v>251.0691524851223</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>245.6489707424078</v>
       </c>
       <c r="N5" t="n">
         <v>244.715801111726</v>
@@ -8231,7 +8231,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>245.9174408455507</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>153.144176489494</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>156.8184790122994</v>
       </c>
       <c r="N6" t="n">
-        <v>146.6444495984684</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>157.8989819595795</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>149.2771449294653</v>
       </c>
       <c r="Q6" t="n">
-        <v>154.6662191763026</v>
+        <v>155.2845116011566</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,16 +8453,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L8" t="n">
-        <v>262.2416917349371</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M8" t="n">
-        <v>257.9362584875889</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N8" t="n">
-        <v>257.0030888569071</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
         <v>257.6882366820029</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L9" t="n">
         <v>166.1444050401903</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>168.6093106869681</v>
       </c>
       <c r="N9" t="n">
-        <v>158.9317373436494</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.4570508509713</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,13 +8696,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>239.6185685314417</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>239.6185685314401</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>-4.973799150320701e-13</v>
+        <v>-4.689582056016661e-13</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6185685314418</v>
+        <v>239.6185685314398</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>-4.263256414560601e-13</v>
       </c>
       <c r="R15" t="n">
         <v>0.546395060290962</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>239.6185685314398</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>239.6185685314419</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>-4.973799150320701e-13</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>-4.263256414560601e-13</v>
       </c>
       <c r="R18" t="n">
         <v>0.546395060290962</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>239.6185685314417</v>
+        <v>239.6185685314416</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>-4.973799150320701e-13</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.546395060290962</v>
+        <v>0.5463950602909904</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,22 +9638,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>300.4442223664217</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>45.01216202534499</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9720,7 +9720,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>210.8663176555573</v>
       </c>
       <c r="R26" t="n">
-        <v>45.23367682508628</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>83.15149233420755</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>8.984068106615496</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>10.12574714858493</v>
+        <v>10.12574714858435</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.5463950602900433</v>
+        <v>0.546395060290962</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>208.8959725747789</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>208.8959725747805</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>10.12574714858493</v>
+        <v>10.12574714858435</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.5463950602909904</v>
+        <v>0.546395060290962</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>136.1357117212864</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>288.8378047206953</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>-6.110667527536862e-13</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>-4.263256414560601e-13</v>
       </c>
       <c r="R36" t="n">
         <v>0.546395060290962</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>288.8378047206948</v>
+        <v>288.8378047206953</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>-6.110667527536862e-13</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -11057,16 +11057,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>286.4522969328236</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>288.8378047206948</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11309,13 +11309,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>288.8378047206953</v>
       </c>
       <c r="Q44" t="n">
-        <v>120.3526141178537</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>10.12574714858456</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>-4.263256414560601e-13</v>
       </c>
       <c r="R45" t="n">
         <v>0.546395060290962</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>308.4410165705099</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>128.5199094213905</v>
+        <v>232.2068074109133</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>63.22251150808996</v>
+        <v>63.22251150808987</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>204.7541185809881</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>23.35289141638548</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>23.35289141638334</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>139.549416808453</v>
       </c>
       <c r="C14" t="n">
-        <v>218.6732040800283</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>360.6340206915384</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>281.5102334199619</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>23.35289141638378</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>23.35289141638567</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23729,10 +23729,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>218.6732040800289</v>
       </c>
       <c r="C17" t="n">
-        <v>13.91908549904059</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23786,10 +23786,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>204.7541185809881</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>281.5102334199619</v>
+        <v>281.5102334199618</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>23.35289141638556</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>23.35289141638326</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>336.4918166133075</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24023,10 +24023,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>204.7541185809881</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>163.6916208866834</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>295.4293189190025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>23.35289141638659</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>23.35289141638364</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>23.35289141638344</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>23.35289141638601</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,19 +24601,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>144.3582534627687</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0312564930842</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.803454668018</v>
@@ -24649,13 +24649,13 @@
         <v>89.17712508496182</v>
       </c>
       <c r="S28" t="n">
-        <v>189.8639731922165</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>49.98895166270682</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2121353820159</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>8.969198450116664</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0312564930842</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.803454668018</v>
       </c>
       <c r="I31" t="n">
-        <v>96.51626366671984</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>89.17712508496182</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5722280944081</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>170.8069899358671</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>164.0678540131946</v>
       </c>
       <c r="D34" t="n">
-        <v>19.01956627606544</v>
+        <v>145.4365059327791</v>
       </c>
       <c r="E34" t="n">
         <v>143.2549955611359</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>141.6244875825847</v>
       </c>
       <c r="I34" t="n">
-        <v>93.33729658128661</v>
+        <v>93.33729658128659</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>85.99815799952859</v>
+        <v>85.99815799952857</v>
       </c>
       <c r="S34" t="n">
-        <v>186.6850061067832</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>215.4056862666615</v>
+        <v>134.0492651341462</v>
       </c>
     </row>
     <row r="35">
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>4.050093593832571e-13</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>890329.1074593968</v>
+        <v>890329.1074593967</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>890329.1074593967</v>
+        <v>890329.1074593968</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>946291.8590981266</v>
+        <v>946291.8590981268</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>931923.9163185925</v>
+        <v>931923.9163185924</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>932905.2150262487</v>
+        <v>932905.2150262486</v>
       </c>
     </row>
     <row r="13">
@@ -26314,34 +26314,34 @@
         <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
-        <v>487916.6867783066</v>
+        <v>487916.6867783068</v>
       </c>
       <c r="F2" t="n">
         <v>487916.6867783067</v>
       </c>
       <c r="G2" t="n">
-        <v>487916.6867783067</v>
+        <v>487916.6867783069</v>
       </c>
       <c r="H2" t="n">
-        <v>487916.6867783066</v>
+        <v>487916.6867783068</v>
       </c>
       <c r="I2" t="n">
-        <v>512800.8127939312</v>
+        <v>512800.8127939314</v>
       </c>
       <c r="J2" t="n">
         <v>496264.1097316889</v>
       </c>
       <c r="K2" t="n">
-        <v>496264.1097316889</v>
+        <v>496264.109731689</v>
       </c>
       <c r="L2" t="n">
-        <v>497400.9465090449</v>
+        <v>497400.9465090448</v>
       </c>
       <c r="M2" t="n">
         <v>513151.106165177</v>
@@ -26353,7 +26353,7 @@
         <v>513151.1061651772</v>
       </c>
       <c r="P2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.106165177</v>
       </c>
     </row>
     <row r="3">
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>34273.67550078202</v>
+        <v>34273.67550078208</v>
       </c>
       <c r="J3" t="n">
-        <v>50485.56084247917</v>
+        <v>50485.56084247923</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26424,28 +26424,28 @@
         <v>400529.7967627071</v>
       </c>
       <c r="E4" t="n">
-        <v>59265.3480816812</v>
+        <v>59265.34808168124</v>
       </c>
       <c r="F4" t="n">
-        <v>59265.3480816812</v>
+        <v>59265.34808168124</v>
       </c>
       <c r="G4" t="n">
-        <v>59265.3480816812</v>
+        <v>59265.34808168124</v>
       </c>
       <c r="H4" t="n">
-        <v>59265.34808168119</v>
+        <v>59265.34808168128</v>
       </c>
       <c r="I4" t="n">
-        <v>70497.60739125397</v>
+        <v>70497.60739125403</v>
       </c>
       <c r="J4" t="n">
         <v>39440.71450766087</v>
       </c>
       <c r="K4" t="n">
-        <v>39440.7145076609</v>
+        <v>39440.71450766087</v>
       </c>
       <c r="L4" t="n">
-        <v>41582.38947844872</v>
+        <v>41582.38947844868</v>
       </c>
       <c r="M4" t="n">
         <v>71135.01487382792</v>
@@ -26454,10 +26454,10 @@
         <v>71135.01487382792</v>
       </c>
       <c r="O4" t="n">
-        <v>71135.01487382791</v>
+        <v>71135.01487382789</v>
       </c>
       <c r="P4" t="n">
-        <v>71135.01487382792</v>
+        <v>71135.01487382789</v>
       </c>
     </row>
     <row r="5">
@@ -26476,28 +26476,28 @@
         <v>35305.07353582722</v>
       </c>
       <c r="E5" t="n">
-        <v>81582.25662839026</v>
+        <v>81582.25662839023</v>
       </c>
       <c r="F5" t="n">
-        <v>81582.25662839026</v>
+        <v>81582.25662839023</v>
       </c>
       <c r="G5" t="n">
-        <v>81582.25662839026</v>
+        <v>81582.25662839023</v>
       </c>
       <c r="H5" t="n">
-        <v>81582.25662839026</v>
+        <v>81582.25662839023</v>
       </c>
       <c r="I5" t="n">
-        <v>89418.56692523611</v>
+        <v>89418.5669252361</v>
       </c>
       <c r="J5" t="n">
         <v>96332.31363132432</v>
       </c>
       <c r="K5" t="n">
-        <v>96332.31363132433</v>
+        <v>96332.31363132432</v>
       </c>
       <c r="L5" t="n">
-        <v>95852.49912032259</v>
+        <v>95852.49912032258</v>
       </c>
       <c r="M5" t="n">
         <v>89286.06798705639</v>
@@ -26509,7 +26509,7 @@
         <v>89286.06798705639</v>
       </c>
       <c r="P5" t="n">
-        <v>89286.06798705638</v>
+        <v>89286.06798705639</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>70938.25310719156</v>
       </c>
       <c r="C6" t="n">
-        <v>76066.55241147624</v>
+        <v>76066.552411476</v>
       </c>
       <c r="D6" t="n">
-        <v>73499.43567435717</v>
+        <v>73499.43567435723</v>
       </c>
       <c r="E6" t="n">
-        <v>-819990.7561629986</v>
+        <v>-820091.6938405457</v>
       </c>
       <c r="F6" t="n">
-        <v>347069.0820682353</v>
+        <v>346968.1443906878</v>
       </c>
       <c r="G6" t="n">
-        <v>347069.0820682353</v>
+        <v>346968.1443906879</v>
       </c>
       <c r="H6" t="n">
-        <v>347069.0820682351</v>
+        <v>346968.1443906878</v>
       </c>
       <c r="I6" t="n">
-        <v>318610.9629766591</v>
+        <v>318609.5618031742</v>
       </c>
       <c r="J6" t="n">
-        <v>310005.5207502245</v>
+        <v>309937.9727644905</v>
       </c>
       <c r="K6" t="n">
-        <v>360491.0815927036</v>
+        <v>360423.5336069699</v>
       </c>
       <c r="L6" t="n">
-        <v>357422.884241927</v>
+        <v>357359.8836033024</v>
       </c>
       <c r="M6" t="n">
         <v>145115.0394637848</v>
       </c>
       <c r="N6" t="n">
-        <v>352730.0233042927</v>
+        <v>352730.0233042926</v>
       </c>
       <c r="O6" t="n">
         <v>352730.0233042929</v>
       </c>
       <c r="P6" t="n">
-        <v>352730.0233042929</v>
+        <v>352730.0233042926</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="F2" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="G2" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="H2" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="I2" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26716,16 +26716,16 @@
         <v>3.178967085433243</v>
       </c>
       <c r="M2" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="N2" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="O2" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="P2" t="n">
-        <v>47.22155977284954</v>
+        <v>47.22155977284948</v>
       </c>
     </row>
     <row r="3">
@@ -26753,7 +26753,7 @@
         <v>1086.755407162287</v>
       </c>
       <c r="H3" t="n">
-        <v>1086.755407162287</v>
+        <v>1086.755407162286</v>
       </c>
       <c r="I3" t="n">
         <v>1086.755407162287</v>
@@ -26765,7 +26765,7 @@
         <v>1086.755407162287</v>
       </c>
       <c r="L3" t="n">
-        <v>1086.755407162286</v>
+        <v>1086.755407162287</v>
       </c>
       <c r="M3" t="n">
         <v>1086.755407162287</v>
@@ -26796,16 +26796,16 @@
         <v>27.59002526031614</v>
       </c>
       <c r="E4" t="n">
-        <v>888.214933360352</v>
+        <v>888.2149333603516</v>
       </c>
       <c r="F4" t="n">
-        <v>888.214933360352</v>
+        <v>888.2149333603516</v>
       </c>
       <c r="G4" t="n">
-        <v>888.214933360352</v>
+        <v>888.2149333603516</v>
       </c>
       <c r="H4" t="n">
-        <v>888.214933360352</v>
+        <v>888.2149333603516</v>
       </c>
       <c r="I4" t="n">
         <v>1017.101615874264</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>3.178967085433243</v>
       </c>
       <c r="M2" t="n">
-        <v>44.04259268741627</v>
+        <v>44.04259268741626</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>12.28728774518109</v>
       </c>
       <c r="E4" t="n">
-        <v>860.6249081000359</v>
+        <v>860.6249081000354</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>128.8866825139121</v>
+        <v>128.8866825139123</v>
       </c>
       <c r="J4" t="n">
-        <v>192.9551636669642</v>
+        <v>192.9551636669644</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>691.7260946476574</v>
+        <v>691.7260946476572</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>12.28728774518109</v>
       </c>
       <c r="M4" t="n">
-        <v>860.6249081000359</v>
+        <v>860.6249081000354</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27382,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>339.3803041055479</v>
+        <v>353.1536797719646</v>
       </c>
       <c r="E2" t="n">
-        <v>368.4517188689308</v>
+        <v>366.6276325571267</v>
       </c>
       <c r="F2" t="n">
         <v>391.5733082265764</v>
@@ -27400,7 +27400,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>151.2304461347323</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27473,10 +27473,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>99.50338435942338</v>
+        <v>96.93270672136141</v>
       </c>
       <c r="I3" t="n">
-        <v>74.09389533628003</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>84.85509663750808</v>
+        <v>87.42577427557005</v>
       </c>
       <c r="S3" t="n">
-        <v>156.3804335887028</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27515,7 +27515,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>217.4978496342902</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>151.9440835834928</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>137.8582625499879</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,7 +27558,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>82.60196964844833</v>
       </c>
       <c r="K4" t="n">
         <v>6.966754310747802</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>70.85930573655934</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>161.9906538620344</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>210.4069178739021</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>369.2551904601496</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>324.1720646006321</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>196.997238367075</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>370.9352011409185</v>
       </c>
     </row>
     <row r="6">
@@ -27698,25 +27698,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>132.1423280495037</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>142.3423429402659</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>129.7664748782488</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>96.93270672136141</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.85509663750808</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>158.2045199005069</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27758,10 +27758,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>190.4702476883424</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>192.9506359002313</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>169.0747697137129</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27792,10 +27792,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>144.6932644590339</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>78.05644260153773</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>6.966754310747802</v>
@@ -27825,7 +27825,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>212.6428519131464</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27895,16 +27895,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S8" t="n">
-        <v>181.4300443259292</v>
+        <v>194.7094745515037</v>
       </c>
       <c r="T8" t="n">
-        <v>198.7945553148449</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27944,13 +27944,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>113.788814240182</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>84.64541897618032</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>65.84192992838649</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27992,10 +27992,10 @@
         <v>205.2105618891091</v>
       </c>
       <c r="W9" t="n">
-        <v>224.1049579006035</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>178.1829599431613</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28029,7 +28029,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>130.4026228674221</v>
+        <v>127.8604496669421</v>
       </c>
       <c r="J10" t="n">
         <v>65.76915485635664</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>58.57201799137825</v>
+        <v>61.1141911918582</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="C11" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="D11" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="E11" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="F11" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="G11" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="H11" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="I11" t="n">
         <v>42.04518470759558</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="T11" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="U11" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="V11" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="W11" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="X11" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="C13" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="D13" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="E13" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="F13" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="G13" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="H13" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="I13" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="J13" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="K13" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="L13" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="M13" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="N13" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="O13" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="P13" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="R13" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="S13" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="T13" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="U13" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="V13" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="W13" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="X13" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="C14" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="D14" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="E14" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="F14" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="G14" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="H14" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="I14" t="n">
         <v>42.04518470759558</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="T14" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="U14" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="V14" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="W14" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="X14" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="C16" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="D16" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="E16" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="F16" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="G16" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="H16" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="I16" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="J16" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="K16" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="L16" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="M16" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="N16" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="O16" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="P16" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="R16" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="S16" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="T16" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="U16" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="V16" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="W16" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="X16" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="C17" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="D17" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="E17" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="F17" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="G17" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="H17" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="I17" t="n">
         <v>42.04518470759558</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="T17" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="U17" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="V17" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="W17" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="X17" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="C19" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="D19" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="E19" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="F19" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="G19" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="H19" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="I19" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="J19" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="K19" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="L19" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="M19" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="N19" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="O19" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="P19" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="R19" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="S19" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="T19" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="U19" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="V19" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="W19" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="X19" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="C20" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="D20" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="E20" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="F20" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="G20" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="H20" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="I20" t="n">
-        <v>42.04518470759558</v>
+        <v>42.04518470759564</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="T20" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="U20" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="V20" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="W20" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="X20" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="C22" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="D22" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="E22" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="F22" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="G22" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="H22" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="I22" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="J22" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="K22" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="L22" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="M22" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="N22" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="O22" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="P22" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="R22" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="S22" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="T22" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="U22" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="V22" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="W22" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="X22" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="C23" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="D23" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="E23" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="F23" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="G23" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="H23" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="I23" t="n">
         <v>42.04518470759558</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="T23" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="U23" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="V23" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="W23" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="X23" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="C25" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="D25" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="E25" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="F25" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="G25" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="H25" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="I25" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="J25" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="K25" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="L25" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="M25" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="N25" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="O25" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="P25" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="R25" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="S25" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="T25" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="U25" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="V25" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="W25" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="X25" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.24202505017302</v>
+        <v>46.24202505017311</v>
       </c>
     </row>
     <row r="26">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="C35" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="D35" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="E35" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="F35" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="G35" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="H35" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="I35" t="n">
         <v>42.04518470759558</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="T35" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="U35" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="V35" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="W35" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="X35" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="Y35" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="C37" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="D37" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="E37" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="F37" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="G37" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="H37" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="I37" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="J37" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="K37" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="L37" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="M37" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="N37" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="O37" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="P37" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="Q37" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="R37" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="S37" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="T37" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="U37" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="V37" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="W37" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="X37" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.22155977284951</v>
+        <v>47.2215597728495</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="C38" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="D38" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="E38" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="F38" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="G38" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="H38" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="I38" t="n">
         <v>42.04518470759558</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="T38" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="U38" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="V38" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="W38" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="X38" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="Y38" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="C40" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="D40" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="E40" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="F40" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="G40" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="H40" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="I40" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="J40" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="K40" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="L40" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="M40" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="N40" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="O40" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="P40" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="Q40" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="R40" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="S40" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="T40" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="U40" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="V40" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="W40" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="X40" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="C41" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="D41" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="E41" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="F41" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="G41" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="H41" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="I41" t="n">
         <v>42.04518470759558</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="T41" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="U41" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="V41" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="W41" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="X41" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="Y41" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="C43" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="D43" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="E43" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="F43" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="G43" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="H43" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="I43" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="J43" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="K43" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="L43" t="n">
-        <v>47.22155977284952</v>
+        <v>47.22155977284888</v>
       </c>
       <c r="M43" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="N43" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="O43" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="P43" t="n">
-        <v>47.22155977284868</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="Q43" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="R43" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="S43" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="T43" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="U43" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="V43" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="W43" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="X43" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.22155977284952</v>
+        <v>47.2215597728495</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>47.22155977284954</v>
+        <v>47.22155977284948</v>
       </c>
       <c r="C44" t="n">
-        <v>47.22155977284954</v>
+        <v>47.22155977284948</v>
       </c>
       <c r="D44" t="n">
-        <v>47.22155977284954</v>
+        <v>47.22155977284948</v>
       </c>
       <c r="E44" t="n">
-        <v>47.22155977284954</v>
+        <v>47.22155977284948</v>
       </c>
       <c r="F44" t="n">
-        <v>47.22155977284954</v>
+        <v>47.22155977284948</v>
       </c>
       <c r="G44" t="n">
-        <v>47.22155977284954</v>
+        <v>47.22155977284948</v>
       </c>
       <c r="H44" t="n">
-        <v>47.22155977284954</v>
+        <v>47.22155977284948</v>
       </c>
       <c r="I44" t="n">
         <v>42.04518470759558</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>47.22155977284954</v>
+        <v>47.22155977284948</v>
       </c>
       <c r="T44" t="n">
-        <v>47.22155977284954</v>
+        <v>47.22155977284948</v>
       </c>
       <c r="U44" t="n">
-        <v>47.22155977284954</v>
+        <v>47.22155977284948</v>
       </c>
       <c r="V44" t="n">
-        <v>47.22155977284954</v>
+        <v>47.22155977284948</v>
       </c>
       <c r="W44" t="n">
-        <v>47.22155977284954</v>
+        <v>47.22155977284948</v>
       </c>
       <c r="X44" t="n">
-        <v>47.22155977284954</v>
+        <v>47.22155977284948</v>
       </c>
       <c r="Y44" t="n">
-        <v>47.22155977284954</v>
+        <v>47.22155977284948</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.22155977284954</v>
+        <v>47.22155977284948</v>
       </c>
       <c r="C46" t="n">
-        <v>47.22155977284954</v>
+        <v>47.22155977284948</v>
       </c>
       <c r="D46" t="n">
-        <v>47.22155977284954</v>
+        <v>47.22155977284948</v>
       </c>
       <c r="E46" t="n">
-        <v>47.22155977284954</v>
+        <v>47.22155977284948</v>
       </c>
       <c r="F46" t="n">
-        <v>47.22155977284954</v>
+        <v>47.22155977284948</v>
       </c>
       <c r="G46" t="n">
-        <v>47.22155977284954</v>
+        <v>47.22155977284948</v>
       </c>
       <c r="H46" t="n">
-        <v>47.22155977284954</v>
+        <v>47.22155977284948</v>
       </c>
       <c r="I46" t="n">
-        <v>47.22155977284954</v>
+        <v>47.22155977284948</v>
       </c>
       <c r="J46" t="n">
-        <v>47.22155977284954</v>
+        <v>47.22155977284948</v>
       </c>
       <c r="K46" t="n">
-        <v>47.22155977284954</v>
+        <v>47.22155977284948</v>
       </c>
       <c r="L46" t="n">
-        <v>47.22155977284954</v>
+        <v>47.22155977284948</v>
       </c>
       <c r="M46" t="n">
-        <v>47.22155977284954</v>
+        <v>47.22155977284948</v>
       </c>
       <c r="N46" t="n">
-        <v>47.22155977284954</v>
+        <v>47.22155977284948</v>
       </c>
       <c r="O46" t="n">
-        <v>47.22155977284954</v>
+        <v>47.22155977284948</v>
       </c>
       <c r="P46" t="n">
-        <v>47.22155977284954</v>
+        <v>47.22155977284948</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.22155977284954</v>
+        <v>47.22155977284948</v>
       </c>
       <c r="R46" t="n">
-        <v>47.22155977284954</v>
+        <v>47.22155977284948</v>
       </c>
       <c r="S46" t="n">
-        <v>47.22155977284954</v>
+        <v>47.22155977284948</v>
       </c>
       <c r="T46" t="n">
-        <v>47.22155977284954</v>
+        <v>47.22155977284948</v>
       </c>
       <c r="U46" t="n">
-        <v>47.22155977284954</v>
+        <v>47.22155977284948</v>
       </c>
       <c r="V46" t="n">
-        <v>47.22155977284954</v>
+        <v>47.22155977284948</v>
       </c>
       <c r="W46" t="n">
-        <v>47.22155977284954</v>
+        <v>47.22155977284948</v>
       </c>
       <c r="X46" t="n">
-        <v>47.22155977284954</v>
+        <v>47.22155977284948</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.22155977284954</v>
+        <v>47.22155977284948</v>
       </c>
     </row>
   </sheetData>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.36886595844135</v>
+        <v>4.368865958441349</v>
       </c>
       <c r="H20" t="n">
-        <v>44.74264849688749</v>
+        <v>44.74264849688748</v>
       </c>
       <c r="I20" t="n">
         <v>168.4307048628103</v>
       </c>
       <c r="J20" t="n">
-        <v>370.8020371402619</v>
+        <v>370.8020371402618</v>
       </c>
       <c r="K20" t="n">
-        <v>555.7361331610844</v>
+        <v>555.7361331610842</v>
       </c>
       <c r="L20" t="n">
-        <v>689.439814736734</v>
+        <v>689.4398147367339</v>
       </c>
       <c r="M20" t="n">
-        <v>767.1346347251653</v>
+        <v>767.1346347251651</v>
       </c>
       <c r="N20" t="n">
-        <v>779.5476751295869</v>
+        <v>779.5476751295867</v>
       </c>
       <c r="O20" t="n">
-        <v>736.1047642553357</v>
+        <v>736.1047642553355</v>
       </c>
       <c r="P20" t="n">
-        <v>628.2483859063148</v>
+        <v>628.2483859063145</v>
       </c>
       <c r="Q20" t="n">
-        <v>471.7883737696337</v>
+        <v>471.7883737696336</v>
       </c>
       <c r="R20" t="n">
         <v>274.4357762619417</v>
       </c>
       <c r="S20" t="n">
-        <v>99.55553302798236</v>
+        <v>99.55553302798235</v>
       </c>
       <c r="T20" t="n">
         <v>19.12471073307702</v>
       </c>
       <c r="U20" t="n">
-        <v>0.349509276675308</v>
+        <v>0.3495092766753079</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,31 +32543,31 @@
         <v>2.337549366349069</v>
       </c>
       <c r="H21" t="n">
-        <v>22.57580572237128</v>
+        <v>22.57580572237127</v>
       </c>
       <c r="I21" t="n">
-        <v>80.48141458701842</v>
+        <v>80.48141458701839</v>
       </c>
       <c r="J21" t="n">
         <v>220.8471530724794</v>
       </c>
       <c r="K21" t="n">
-        <v>377.4629606178671</v>
+        <v>377.462960617867</v>
       </c>
       <c r="L21" t="n">
-        <v>507.5455323732925</v>
+        <v>507.5455323732924</v>
       </c>
       <c r="M21" t="n">
-        <v>592.2816969034462</v>
+        <v>592.281696903446</v>
       </c>
       <c r="N21" t="n">
-        <v>607.9576310312872</v>
+        <v>607.9576310312871</v>
       </c>
       <c r="O21" t="n">
-        <v>556.1624582295525</v>
+        <v>556.1624582295524</v>
       </c>
       <c r="P21" t="n">
-        <v>446.369404877657</v>
+        <v>446.3694048776569</v>
       </c>
       <c r="Q21" t="n">
         <v>298.3861261325584</v>
@@ -32576,13 +32576,13 @@
         <v>145.133108903673</v>
       </c>
       <c r="S21" t="n">
-        <v>43.41895423898379</v>
+        <v>43.41895423898378</v>
       </c>
       <c r="T21" t="n">
-        <v>9.421964331906992</v>
+        <v>9.42196433190699</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1537861425229652</v>
+        <v>0.1537861425229651</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,7 +32625,7 @@
         <v>17.42371783942159</v>
       </c>
       <c r="I22" t="n">
-        <v>58.93421126053845</v>
+        <v>58.93421126053843</v>
       </c>
       <c r="J22" t="n">
         <v>138.5524065819853</v>
@@ -32643,22 +32643,22 @@
         <v>299.8910453895538</v>
       </c>
       <c r="O22" t="n">
-        <v>276.9979191894957</v>
+        <v>276.9979191894956</v>
       </c>
       <c r="P22" t="n">
-        <v>237.0195727358534</v>
+        <v>237.0195727358533</v>
       </c>
       <c r="Q22" t="n">
         <v>164.1000664815053</v>
       </c>
       <c r="R22" t="n">
-        <v>88.11626629220767</v>
+        <v>88.11626629220765</v>
       </c>
       <c r="S22" t="n">
-        <v>34.15262484475578</v>
+        <v>34.15262484475577</v>
       </c>
       <c r="T22" t="n">
-        <v>8.373361333873353</v>
+        <v>8.373361333873351</v>
       </c>
       <c r="U22" t="n">
         <v>0.1068939744749791</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.368865958441349</v>
+        <v>4.36886595844135</v>
       </c>
       <c r="H32" t="n">
-        <v>44.74264849688748</v>
+        <v>44.74264849688749</v>
       </c>
       <c r="I32" t="n">
         <v>168.4307048628103</v>
       </c>
       <c r="J32" t="n">
-        <v>370.8020371402618</v>
+        <v>370.8020371402619</v>
       </c>
       <c r="K32" t="n">
-        <v>555.7361331610842</v>
+        <v>555.7361331610844</v>
       </c>
       <c r="L32" t="n">
-        <v>689.4398147367339</v>
+        <v>689.439814736734</v>
       </c>
       <c r="M32" t="n">
-        <v>767.1346347251651</v>
+        <v>767.1346347251653</v>
       </c>
       <c r="N32" t="n">
-        <v>779.5476751295867</v>
+        <v>779.5476751295869</v>
       </c>
       <c r="O32" t="n">
-        <v>736.1047642553355</v>
+        <v>736.1047642553357</v>
       </c>
       <c r="P32" t="n">
-        <v>628.2483859063145</v>
+        <v>628.2483859063148</v>
       </c>
       <c r="Q32" t="n">
-        <v>471.7883737696336</v>
+        <v>471.7883737696337</v>
       </c>
       <c r="R32" t="n">
         <v>274.4357762619417</v>
       </c>
       <c r="S32" t="n">
-        <v>99.55553302798235</v>
+        <v>99.55553302798236</v>
       </c>
       <c r="T32" t="n">
         <v>19.12471073307702</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3495092766753079</v>
+        <v>0.349509276675308</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,31 +33491,31 @@
         <v>2.337549366349069</v>
       </c>
       <c r="H33" t="n">
-        <v>22.57580572237127</v>
+        <v>22.57580572237128</v>
       </c>
       <c r="I33" t="n">
-        <v>80.48141458701839</v>
+        <v>80.48141458701842</v>
       </c>
       <c r="J33" t="n">
         <v>220.8471530724794</v>
       </c>
       <c r="K33" t="n">
-        <v>377.462960617867</v>
+        <v>377.4629606178671</v>
       </c>
       <c r="L33" t="n">
-        <v>507.5455323732924</v>
+        <v>507.5455323732925</v>
       </c>
       <c r="M33" t="n">
-        <v>592.281696903446</v>
+        <v>592.2816969034462</v>
       </c>
       <c r="N33" t="n">
-        <v>607.9576310312871</v>
+        <v>607.9576310312872</v>
       </c>
       <c r="O33" t="n">
-        <v>556.1624582295524</v>
+        <v>556.1624582295525</v>
       </c>
       <c r="P33" t="n">
-        <v>446.3694048776569</v>
+        <v>446.369404877657</v>
       </c>
       <c r="Q33" t="n">
         <v>298.3861261325584</v>
@@ -33524,13 +33524,13 @@
         <v>145.133108903673</v>
       </c>
       <c r="S33" t="n">
-        <v>43.41895423898378</v>
+        <v>43.41895423898379</v>
       </c>
       <c r="T33" t="n">
-        <v>9.42196433190699</v>
+        <v>9.421964331906992</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1537861425229651</v>
+        <v>0.1537861425229652</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,7 +33573,7 @@
         <v>17.42371783942159</v>
       </c>
       <c r="I34" t="n">
-        <v>58.93421126053843</v>
+        <v>58.93421126053845</v>
       </c>
       <c r="J34" t="n">
         <v>138.5524065819853</v>
@@ -33591,22 +33591,22 @@
         <v>299.8910453895538</v>
       </c>
       <c r="O34" t="n">
-        <v>276.9979191894956</v>
+        <v>276.9979191894957</v>
       </c>
       <c r="P34" t="n">
-        <v>237.0195727358533</v>
+        <v>237.0195727358534</v>
       </c>
       <c r="Q34" t="n">
         <v>164.1000664815053</v>
       </c>
       <c r="R34" t="n">
-        <v>88.11626629220765</v>
+        <v>88.11626629220767</v>
       </c>
       <c r="S34" t="n">
-        <v>34.15262484475577</v>
+        <v>34.15262484475578</v>
       </c>
       <c r="T34" t="n">
-        <v>8.373361333873351</v>
+        <v>8.373361333873353</v>
       </c>
       <c r="U34" t="n">
         <v>0.1068939744749791</v>
@@ -34699,7 +34699,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="L2" t="n">
         <v>15.30273751513505</v>
@@ -34711,7 +34711,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="O2" t="n">
-        <v>14.68444509028111</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="P3" t="n">
         <v>14.68444509028111</v>
       </c>
       <c r="Q3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,13 +34936,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="L5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="N5" t="n">
         <v>15.30273751513505</v>
@@ -34951,7 +34951,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>14.68444509028111</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="N6" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="Q6" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,16 +35173,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L8" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M8" t="n">
-        <v>27.59002526031614</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="N8" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>27.59002526031614</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L9" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="O9" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>26.47527676494983</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,13 +35416,13 @@
         <v>453.6733997667467</v>
       </c>
       <c r="M11" t="n">
-        <v>776.4069700293343</v>
+        <v>536.7884014978926</v>
       </c>
       <c r="N11" t="n">
         <v>550.1346115329959</v>
       </c>
       <c r="O11" t="n">
-        <v>506.0065528336489</v>
+        <v>745.6251213650891</v>
       </c>
       <c r="P11" t="n">
         <v>397.0153901510452</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.00952640581225</v>
+        <v>94.00952640581228</v>
       </c>
       <c r="K12" t="n">
         <v>239.6215216435081</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>91.43525151548553</v>
+        <v>91.43525151548562</v>
       </c>
       <c r="K13" t="n">
-        <v>251.6566988559954</v>
+        <v>251.6566988559955</v>
       </c>
       <c r="L13" t="n">
-        <v>365.189393404457</v>
+        <v>365.1893934044571</v>
       </c>
       <c r="M13" t="n">
-        <v>393.0213689906907</v>
+        <v>393.0213689906908</v>
       </c>
       <c r="N13" t="n">
-        <v>390.2652428189554</v>
+        <v>390.2652428189555</v>
       </c>
       <c r="O13" t="n">
         <v>347.8250721537084</v>
       </c>
       <c r="P13" t="n">
-        <v>280.5401570509198</v>
+        <v>280.54015705092</v>
       </c>
       <c r="Q13" t="n">
-        <v>124.1800482799839</v>
+        <v>124.180048279984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>335.6462821161038</v>
       </c>
       <c r="L14" t="n">
-        <v>693.2919682981885</v>
+        <v>693.2919682981866</v>
       </c>
       <c r="M14" t="n">
         <v>536.7884014978926</v>
@@ -35744,7 +35744,7 @@
         <v>312.3949974633268</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.4043520465369</v>
+        <v>158.4043520465365</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>91.43525151548553</v>
+        <v>91.43525151548562</v>
       </c>
       <c r="K16" t="n">
-        <v>251.6566988559954</v>
+        <v>251.6566988559955</v>
       </c>
       <c r="L16" t="n">
-        <v>365.189393404457</v>
+        <v>365.1893934044571</v>
       </c>
       <c r="M16" t="n">
-        <v>393.0213689906907</v>
+        <v>393.0213689906908</v>
       </c>
       <c r="N16" t="n">
         <v>390.2652428189555</v>
@@ -35820,10 +35820,10 @@
         <v>347.8250721537084</v>
       </c>
       <c r="P16" t="n">
-        <v>280.5401570509198</v>
+        <v>280.54015705092</v>
       </c>
       <c r="Q16" t="n">
-        <v>124.1800482799839</v>
+        <v>124.180048279984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>189.7561326135756</v>
       </c>
       <c r="K17" t="n">
-        <v>335.6462821161038</v>
+        <v>575.2648506475437</v>
       </c>
       <c r="L17" t="n">
         <v>453.6733997667467</v>
@@ -35899,7 +35899,7 @@
         <v>506.0065528336489</v>
       </c>
       <c r="P17" t="n">
-        <v>636.6339586824871</v>
+        <v>397.0153901510452</v>
       </c>
       <c r="Q17" t="n">
         <v>249.4826838951842</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.00952640581225</v>
+        <v>94.00952640581275</v>
       </c>
       <c r="K18" t="n">
         <v>239.6215216435081</v>
@@ -35981,7 +35981,7 @@
         <v>312.3949974633268</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.4043520465369</v>
+        <v>158.4043520465365</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>91.43525151548553</v>
+        <v>91.43525151548562</v>
       </c>
       <c r="K19" t="n">
-        <v>251.6566988559954</v>
+        <v>251.6566988559955</v>
       </c>
       <c r="L19" t="n">
-        <v>365.189393404457</v>
+        <v>365.1893934044571</v>
       </c>
       <c r="M19" t="n">
-        <v>393.0213689906907</v>
+        <v>393.0213689906908</v>
       </c>
       <c r="N19" t="n">
         <v>390.2652428189555</v>
@@ -36057,10 +36057,10 @@
         <v>347.8250721537084</v>
       </c>
       <c r="P19" t="n">
-        <v>280.5401570509198</v>
+        <v>280.54015705092</v>
       </c>
       <c r="Q19" t="n">
-        <v>124.1800482799839</v>
+        <v>124.180048279984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>189.7561326135756</v>
+        <v>189.7561326135755</v>
       </c>
       <c r="K20" t="n">
-        <v>575.2648506475455</v>
+        <v>575.2648506475452</v>
       </c>
       <c r="L20" t="n">
-        <v>453.6733997667467</v>
+        <v>453.6733997667466</v>
       </c>
       <c r="M20" t="n">
-        <v>536.7884014978926</v>
+        <v>536.7884014978924</v>
       </c>
       <c r="N20" t="n">
-        <v>550.1346115329959</v>
+        <v>550.1346115329957</v>
       </c>
       <c r="O20" t="n">
-        <v>506.0065528336489</v>
+        <v>506.0065528336487</v>
       </c>
       <c r="P20" t="n">
-        <v>397.0153901510452</v>
+        <v>397.015390151045</v>
       </c>
       <c r="Q20" t="n">
-        <v>249.4826838951842</v>
+        <v>249.4826838951841</v>
       </c>
       <c r="R20" t="n">
-        <v>58.8502384478096</v>
+        <v>58.85023844780955</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.00952640581225</v>
+        <v>94.00952640581272</v>
       </c>
       <c r="K21" t="n">
-        <v>239.6215216435081</v>
+        <v>239.621521643508</v>
       </c>
       <c r="L21" t="n">
-        <v>368.9911525934183</v>
+        <v>368.9911525934182</v>
       </c>
       <c r="M21" t="n">
-        <v>450.1476629814279</v>
+        <v>450.1476629814277</v>
       </c>
       <c r="N21" t="n">
-        <v>476.6159189479539</v>
+        <v>476.6159189479538</v>
       </c>
       <c r="O21" t="n">
-        <v>413.5662137851081</v>
+        <v>413.5662137851079</v>
       </c>
       <c r="P21" t="n">
-        <v>312.3949974633268</v>
+        <v>312.3949974633267</v>
       </c>
       <c r="Q21" t="n">
         <v>158.4043520465369</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>91.43525151548553</v>
+        <v>91.43525151548559</v>
       </c>
       <c r="K22" t="n">
         <v>251.6566988559954</v>
@@ -36285,19 +36285,19 @@
         <v>365.189393404457</v>
       </c>
       <c r="M22" t="n">
-        <v>393.0213689906907</v>
+        <v>393.0213689906908</v>
       </c>
       <c r="N22" t="n">
-        <v>390.2652428189554</v>
+        <v>390.2652428189555</v>
       </c>
       <c r="O22" t="n">
         <v>347.8250721537084</v>
       </c>
       <c r="P22" t="n">
-        <v>280.5401570509198</v>
+        <v>280.5401570509199</v>
       </c>
       <c r="Q22" t="n">
-        <v>124.1800482799839</v>
+        <v>124.180048279984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,22 +36358,22 @@
         <v>189.7561326135756</v>
       </c>
       <c r="K23" t="n">
-        <v>659.7916946872685</v>
+        <v>335.6462821161038</v>
       </c>
       <c r="L23" t="n">
         <v>453.6733997667467</v>
       </c>
       <c r="M23" t="n">
-        <v>536.7884014978926</v>
+        <v>986.301934990725</v>
       </c>
       <c r="N23" t="n">
-        <v>550.1346115329959</v>
+        <v>850.5788338994176</v>
       </c>
       <c r="O23" t="n">
-        <v>886.8067340963943</v>
+        <v>506.0065528336489</v>
       </c>
       <c r="P23" t="n">
-        <v>442.0275521763902</v>
+        <v>397.0153901510452</v>
       </c>
       <c r="Q23" t="n">
         <v>249.4826838951842</v>
@@ -36440,7 +36440,7 @@
         <v>239.6215216435081</v>
       </c>
       <c r="L24" t="n">
-        <v>368.9911525934183</v>
+        <v>368.9911525934178</v>
       </c>
       <c r="M24" t="n">
         <v>450.1476629814279</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>91.43525151548553</v>
+        <v>91.43525151548562</v>
       </c>
       <c r="K25" t="n">
-        <v>251.6566988559954</v>
+        <v>251.6566988559955</v>
       </c>
       <c r="L25" t="n">
-        <v>365.189393404457</v>
+        <v>365.1893934044571</v>
       </c>
       <c r="M25" t="n">
-        <v>393.0213689906907</v>
+        <v>393.0213689906908</v>
       </c>
       <c r="N25" t="n">
         <v>390.2652428189555</v>
@@ -36531,10 +36531,10 @@
         <v>347.8250721537084</v>
       </c>
       <c r="P25" t="n">
-        <v>280.5401570509198</v>
+        <v>280.54015705092</v>
       </c>
       <c r="Q25" t="n">
-        <v>124.1800482799839</v>
+        <v>124.180048279984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>358.8527477856494</v>
+        <v>189.7561326135756</v>
       </c>
       <c r="K26" t="n">
-        <v>659.7916946872685</v>
+        <v>335.6462821161038</v>
       </c>
       <c r="L26" t="n">
-        <v>453.6733997667467</v>
+        <v>871.3346143171972</v>
       </c>
       <c r="M26" t="n">
         <v>536.7884014978926</v>
       </c>
       <c r="N26" t="n">
-        <v>550.1346115329959</v>
+        <v>987.4815359449801</v>
       </c>
       <c r="O26" t="n">
-        <v>886.8067340963943</v>
+        <v>506.0065528336489</v>
       </c>
       <c r="P26" t="n">
         <v>718.8140983225278</v>
       </c>
       <c r="Q26" t="n">
-        <v>461.7976745550889</v>
+        <v>460.3490015507415</v>
       </c>
       <c r="R26" t="n">
-        <v>104.0839152728959</v>
+        <v>124.566658320792</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>189.7561326135756</v>
+        <v>272.9076249477832</v>
       </c>
       <c r="K29" t="n">
-        <v>659.7916946872685</v>
+        <v>335.6462821161038</v>
       </c>
       <c r="L29" t="n">
         <v>871.3346143171972</v>
       </c>
       <c r="M29" t="n">
-        <v>536.7884014978926</v>
+        <v>986.301934990725</v>
       </c>
       <c r="N29" t="n">
-        <v>550.1346115329959</v>
+        <v>987.4815359449801</v>
       </c>
       <c r="O29" t="n">
-        <v>886.8067340963943</v>
+        <v>506.0065528336489</v>
       </c>
       <c r="P29" t="n">
-        <v>718.8140983225278</v>
+        <v>397.0153901510452</v>
       </c>
       <c r="Q29" t="n">
         <v>249.4826838951842</v>
       </c>
       <c r="R29" t="n">
-        <v>67.8343065544251</v>
+        <v>124.566658320792</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>158.4043520465369</v>
       </c>
       <c r="R30" t="n">
-        <v>-9.186815169423518e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>358.8527477856493</v>
+        <v>358.8527477856494</v>
       </c>
       <c r="K32" t="n">
-        <v>659.7916946872684</v>
+        <v>659.7916946872685</v>
       </c>
       <c r="L32" t="n">
-        <v>453.6733997667466</v>
+        <v>662.5693723415256</v>
       </c>
       <c r="M32" t="n">
-        <v>536.7884014978924</v>
+        <v>536.7884014978926</v>
       </c>
       <c r="N32" t="n">
-        <v>550.1346115329957</v>
+        <v>550.1346115329959</v>
       </c>
       <c r="O32" t="n">
-        <v>886.8067340963941</v>
+        <v>886.8067340963943</v>
       </c>
       <c r="P32" t="n">
-        <v>718.8140983225276</v>
+        <v>718.8140983225278</v>
       </c>
       <c r="Q32" t="n">
-        <v>458.3786564699646</v>
+        <v>249.4826838951842</v>
       </c>
       <c r="R32" t="n">
-        <v>58.85023844780955</v>
+        <v>58.8502384478096</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.00952640581272</v>
+        <v>94.00952640581275</v>
       </c>
       <c r="K33" t="n">
-        <v>239.621521643508</v>
+        <v>239.6215216435081</v>
       </c>
       <c r="L33" t="n">
-        <v>368.9911525934182</v>
+        <v>368.9911525934183</v>
       </c>
       <c r="M33" t="n">
-        <v>450.1476629814277</v>
+        <v>450.1476629814279</v>
       </c>
       <c r="N33" t="n">
-        <v>476.6159189479538</v>
+        <v>476.6159189479539</v>
       </c>
       <c r="O33" t="n">
-        <v>413.5662137851079</v>
+        <v>413.5662137851081</v>
       </c>
       <c r="P33" t="n">
-        <v>312.3949974633267</v>
+        <v>312.3949974633268</v>
       </c>
       <c r="Q33" t="n">
         <v>158.4043520465369</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>48.37219355074572</v>
+        <v>48.37219355074575</v>
       </c>
       <c r="K34" t="n">
         <v>208.5936408912556</v>
       </c>
       <c r="L34" t="n">
-        <v>322.1263354397171</v>
+        <v>322.1263354397172</v>
       </c>
       <c r="M34" t="n">
         <v>349.9583110259509</v>
       </c>
       <c r="N34" t="n">
-        <v>347.2021848542156</v>
+        <v>347.2021848542157</v>
       </c>
       <c r="O34" t="n">
         <v>304.7620141889686</v>
       </c>
       <c r="P34" t="n">
-        <v>237.47709908618</v>
+        <v>237.4770990861801</v>
       </c>
       <c r="Q34" t="n">
-        <v>81.11699031524411</v>
+        <v>81.11699031524414</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>358.8527477856494</v>
+        <v>325.8918443348621</v>
       </c>
       <c r="K35" t="n">
         <v>335.6462821161038</v>
@@ -37321,7 +37321,7 @@
         <v>506.0065528336489</v>
       </c>
       <c r="P35" t="n">
-        <v>685.8531948717405</v>
+        <v>718.8140983225278</v>
       </c>
       <c r="Q35" t="n">
         <v>461.7976745550889</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.00952640581214</v>
+        <v>94.00952640581275</v>
       </c>
       <c r="K36" t="n">
         <v>239.6215216435081</v>
@@ -37403,7 +37403,7 @@
         <v>312.3949974633268</v>
       </c>
       <c r="Q36" t="n">
-        <v>158.4043520465369</v>
+        <v>158.4043520465365</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>252.6362335786719</v>
       </c>
       <c r="L37" t="n">
-        <v>366.1689281271335</v>
+        <v>366.1689281271334</v>
       </c>
       <c r="M37" t="n">
         <v>394.0009037133672</v>
@@ -37558,7 +37558,7 @@
         <v>506.0065528336489</v>
       </c>
       <c r="P38" t="n">
-        <v>685.85319487174</v>
+        <v>685.8531948717405</v>
       </c>
       <c r="Q38" t="n">
         <v>461.7976745550889</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.00952640581214</v>
+        <v>94.00952640581275</v>
       </c>
       <c r="K39" t="n">
         <v>239.6215216435081</v>
       </c>
       <c r="L39" t="n">
-        <v>368.9911525934183</v>
+        <v>368.9911525934178</v>
       </c>
       <c r="M39" t="n">
         <v>450.1476629814279</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.41478623816202</v>
+        <v>92.41478623816201</v>
       </c>
       <c r="K40" t="n">
         <v>252.6362335786719</v>
       </c>
       <c r="L40" t="n">
-        <v>366.1689281271335</v>
+        <v>366.1689281271334</v>
       </c>
       <c r="M40" t="n">
         <v>394.0009037133672</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>358.8527477856494</v>
+        <v>189.7561326135756</v>
       </c>
       <c r="K41" t="n">
         <v>335.6462821161038</v>
       </c>
       <c r="L41" t="n">
-        <v>453.6733997667467</v>
+        <v>740.1256966995703</v>
       </c>
       <c r="M41" t="n">
-        <v>536.7884014978926</v>
+        <v>986.301934990725</v>
       </c>
       <c r="N41" t="n">
         <v>550.1346115329959</v>
@@ -37795,13 +37795,13 @@
         <v>506.0065528336489</v>
       </c>
       <c r="P41" t="n">
-        <v>685.85319487174</v>
+        <v>397.0153901510452</v>
       </c>
       <c r="Q41" t="n">
-        <v>461.7976745550889</v>
+        <v>249.4826838951842</v>
       </c>
       <c r="R41" t="n">
-        <v>124.566658320792</v>
+        <v>58.8502384478096</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.41478623816202</v>
+        <v>92.41478623816201</v>
       </c>
       <c r="K43" t="n">
         <v>252.6362335786719</v>
       </c>
       <c r="L43" t="n">
-        <v>366.1689281271335</v>
+        <v>366.1689281271329</v>
       </c>
       <c r="M43" t="n">
         <v>394.0009037133672</v>
@@ -37953,7 +37953,7 @@
         <v>348.8046068763849</v>
       </c>
       <c r="P43" t="n">
-        <v>281.5196917735955</v>
+        <v>281.5196917735963</v>
       </c>
       <c r="Q43" t="n">
         <v>125.1595830026604</v>
@@ -38029,13 +38029,13 @@
         <v>550.1346115329959</v>
       </c>
       <c r="O44" t="n">
-        <v>886.8067340963943</v>
+        <v>506.0065528336489</v>
       </c>
       <c r="P44" t="n">
-        <v>397.0153901510452</v>
+        <v>685.8531948717405</v>
       </c>
       <c r="Q44" t="n">
-        <v>369.8352980130379</v>
+        <v>461.7976745550889</v>
       </c>
       <c r="R44" t="n">
         <v>124.566658320792</v>
@@ -38114,7 +38114,7 @@
         <v>312.3949974633268</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.4043520465369</v>
+        <v>158.4043520465365</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.41478623816204</v>
+        <v>92.41478623816198</v>
       </c>
       <c r="K46" t="n">
         <v>252.6362335786719</v>
       </c>
       <c r="L46" t="n">
-        <v>366.1689281271335</v>
+        <v>366.1689281271334</v>
       </c>
       <c r="M46" t="n">
-        <v>394.0009037133673</v>
+        <v>394.0009037133672</v>
       </c>
       <c r="N46" t="n">
         <v>391.2447775416319</v>
       </c>
       <c r="O46" t="n">
-        <v>348.8046068763849</v>
+        <v>348.8046068763848</v>
       </c>
       <c r="P46" t="n">
-        <v>281.5196917735964</v>
+        <v>281.5196917735963</v>
       </c>
       <c r="Q46" t="n">
         <v>125.1595830026604</v>
